--- a/sriramModel-nelson-atypical-patientID_15-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_15-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.219867940799676</v>
+        <v>1.156058239700703</v>
       </c>
       <c r="C2">
-        <v>1.061270617810339</v>
+        <v>1.040092003307389</v>
       </c>
       <c r="D2">
-        <v>1.084233242555247</v>
+        <v>1.025894867274098</v>
       </c>
       <c r="E2">
-        <v>1.055121254980912</v>
+        <v>1.083091425865767</v>
       </c>
       <c r="F2">
-        <v>1.211684943854454</v>
+        <v>1.040694373943975</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.40690559426489</v>
+        <v>1.30844789397609</v>
       </c>
       <c r="C3">
-        <v>1.119714536350304</v>
+        <v>1.078128531008144</v>
       </c>
       <c r="D3">
-        <v>1.168001245780789</v>
+        <v>1.050562631841614</v>
       </c>
       <c r="E3">
-        <v>1.109617577636252</v>
+        <v>1.150068919426784</v>
       </c>
       <c r="F3">
-        <v>1.41169182317829</v>
+        <v>1.081057474779688</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.558183630128876</v>
+        <v>1.453568567095561</v>
       </c>
       <c r="C4">
-        <v>1.175368522480816</v>
+        <v>1.114169426467032</v>
       </c>
       <c r="D4">
-        <v>1.251312596491371</v>
+        <v>1.074034798506813</v>
       </c>
       <c r="E4">
-        <v>1.163517634199571</v>
+        <v>1.202854083177422</v>
       </c>
       <c r="F4">
-        <v>1.589630170245413</v>
+        <v>1.121094998532168</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.675873192191542</v>
+        <v>1.58412845070163</v>
       </c>
       <c r="C5">
-        <v>1.228282652649179</v>
+        <v>1.148272196687865</v>
       </c>
       <c r="D5">
-        <v>1.334173917772528</v>
+        <v>1.096341970444845</v>
       </c>
       <c r="E5">
-        <v>1.2168465911403</v>
+        <v>1.243729647003644</v>
       </c>
       <c r="F5">
-        <v>1.734056388266041</v>
+        <v>1.160812400605013</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.765088424204527</v>
+        <v>1.690137690178144</v>
       </c>
       <c r="C6">
-        <v>1.278518018193672</v>
+        <v>1.180492603316875</v>
       </c>
       <c r="D6">
-        <v>1.416589495798948</v>
+        <v>1.117513984276389</v>
       </c>
       <c r="E6">
-        <v>1.26962622642935</v>
+        <v>1.274887105745075</v>
       </c>
       <c r="F6">
-        <v>1.839069593799681</v>
+        <v>1.200214861820606</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.831667911366175</v>
+        <v>1.764357402850094</v>
       </c>
       <c r="C7">
-        <v>1.326144605884279</v>
+        <v>1.210884668329633</v>
       </c>
       <c r="D7">
-        <v>1.498560830880646</v>
+        <v>1.137579910643513</v>
       </c>
       <c r="E7">
-        <v>1.321874998015994</v>
+        <v>1.298225291112997</v>
       </c>
       <c r="F7">
-        <v>1.907906127970279</v>
+        <v>1.239307255281516</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.88080403870886</v>
+        <v>1.807503099080241</v>
       </c>
       <c r="C8">
-        <v>1.371239403416703</v>
+        <v>1.239500836990915</v>
       </c>
       <c r="D8">
-        <v>1.580086138714565</v>
+        <v>1.156568100499046</v>
       </c>
       <c r="E8">
-        <v>1.373608009857158</v>
+        <v>1.315302665200297</v>
       </c>
       <c r="F8">
-        <v>1.949454722748113</v>
+        <v>1.278094110203331</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.916642555790049</v>
+        <v>1.826595684915656</v>
       </c>
       <c r="C9">
-        <v>1.413884691942902</v>
+        <v>1.266392206347422</v>
       </c>
       <c r="D9">
-        <v>1.66115978886173</v>
+        <v>1.174506213579461</v>
       </c>
       <c r="E9">
-        <v>1.424836938429887</v>
+        <v>1.32736311469376</v>
       </c>
       <c r="F9">
-        <v>1.972858043972186</v>
+        <v>1.316579566202031</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.942339756035341</v>
+        <v>1.829709047534626</v>
       </c>
       <c r="C10">
-        <v>1.454166272342953</v>
+        <v>1.291608631294244</v>
       </c>
       <c r="D10">
-        <v>1.741771649006458</v>
+        <v>1.191421243498453</v>
       </c>
       <c r="E10">
-        <v>1.475569942186356</v>
+        <v>1.335386610180483</v>
       </c>
       <c r="F10">
-        <v>1.98495220590836</v>
+        <v>1.35476730934332</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.960253210787805</v>
+        <v>1.823013914614327</v>
       </c>
       <c r="C11">
-        <v>1.492172152177732</v>
+        <v>1.315198794430036</v>
       </c>
       <c r="D11">
-        <v>1.821906436059712</v>
+        <v>1.207339541953804</v>
       </c>
       <c r="E11">
-        <v>1.5258114801251</v>
+        <v>1.340142065159325</v>
       </c>
       <c r="F11">
-        <v>1.990161473795516</v>
+        <v>1.39266047620007</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.972136588193948</v>
+        <v>1.810479184397345</v>
       </c>
       <c r="C12">
-        <v>1.527991460276606</v>
+        <v>1.337210280310251</v>
       </c>
       <c r="D12">
-        <v>1.901543013020765</v>
+        <v>1.222286839735568</v>
       </c>
       <c r="E12">
-        <v>1.575562086191372</v>
+        <v>1.3422335246125</v>
       </c>
       <c r="F12">
-        <v>1.991179319002088</v>
+        <v>1.4302615447538</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.979299177575611</v>
+        <v>1.794487740171806</v>
       </c>
       <c r="C13">
-        <v>1.561713430737341</v>
+        <v>1.357689646510382</v>
       </c>
       <c r="D13">
-        <v>1.980653662358459</v>
+        <v>1.236288271313893</v>
       </c>
       <c r="E13">
-        <v>1.624818154577742</v>
+        <v>1.342137571826735</v>
       </c>
       <c r="F13">
-        <v>1.989615323041587</v>
+        <v>1.467572202532848</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.982726280482813</v>
+        <v>1.776444918236649</v>
       </c>
       <c r="C14">
-        <v>1.593426568636592</v>
+        <v>1.376682485658096</v>
       </c>
       <c r="D14">
-        <v>2.059203350543799</v>
+        <v>1.249368405671188</v>
       </c>
       <c r="E14">
-        <v>1.673571653165263</v>
+        <v>1.340232622128353</v>
       </c>
       <c r="F14">
-        <v>1.986433752096603</v>
+        <v>1.50459318143648</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.983166829799283</v>
+        <v>1.757184652424108</v>
       </c>
       <c r="C15">
-        <v>1.623217965668981</v>
+        <v>1.394233468031089</v>
       </c>
       <c r="D15">
-        <v>2.13714898087631</v>
+        <v>1.2615512501204</v>
       </c>
       <c r="E15">
-        <v>1.721809774460878</v>
+        <v>1.336821377938998</v>
       </c>
       <c r="F15">
-        <v>1.982219919447683</v>
+        <v>1.541324051605265</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.981196315857425</v>
+        <v>1.737210476746352</v>
       </c>
       <c r="C16">
-        <v>1.651172818720309</v>
+        <v>1.410386371865105</v>
       </c>
       <c r="D16">
-        <v>2.214438680133687</v>
+        <v>1.272860299580582</v>
       </c>
       <c r="E16">
-        <v>1.769514556328407</v>
+        <v>1.332147951945777</v>
       </c>
       <c r="F16">
-        <v>1.977335441957099</v>
+        <v>1.577762979797983</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.977261871004856</v>
+        <v>1.716833126926976</v>
       </c>
       <c r="C17">
-        <v>1.677374078526027</v>
+        <v>1.425184110756096</v>
       </c>
       <c r="D17">
-        <v>2.291011139898904</v>
+        <v>1.283318508024594</v>
       </c>
       <c r="E17">
-        <v>1.816662451778762</v>
+        <v>1.326410879709011</v>
       </c>
       <c r="F17">
-        <v>1.972008101876311</v>
+        <v>1.613906427481483</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.971714669365883</v>
+        <v>1.696248796086586</v>
       </c>
       <c r="C18">
-        <v>1.701902152982795</v>
+        <v>1.438668760269159</v>
       </c>
       <c r="D18">
-        <v>2.366795029726144</v>
+        <v>1.292948365642166</v>
       </c>
       <c r="E18">
-        <v>1.863223836758238</v>
+        <v>1.319773035088238</v>
       </c>
       <c r="F18">
-        <v>1.966384216536432</v>
+        <v>1.649748681259481</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.964833464416871</v>
+        <v>1.675584141492586</v>
       </c>
       <c r="C19">
-        <v>1.724834691281652</v>
+        <v>1.450881580330381</v>
       </c>
       <c r="D19">
-        <v>2.441708505399152</v>
+        <v>1.301771879657436</v>
       </c>
       <c r="E19">
-        <v>1.909162459515922</v>
+        <v>1.312369202620939</v>
       </c>
       <c r="F19">
-        <v>1.960559578622735</v>
+        <v>1.685281459731433</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.956841749529312</v>
+        <v>1.654922759846736</v>
       </c>
       <c r="C20">
-        <v>1.746246451340779</v>
+        <v>1.461863035569071</v>
       </c>
       <c r="D20">
-        <v>2.515658843579934</v>
+        <v>1.30981061481365</v>
       </c>
       <c r="E20">
-        <v>1.954434827241045</v>
+        <v>1.30431188192603</v>
       </c>
       <c r="F20">
-        <v>1.954598030272894</v>
+        <v>1.720493364794784</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.947920317218348</v>
+        <v>1.634320822605507</v>
       </c>
       <c r="C21">
-        <v>1.766209235792064</v>
+        <v>1.471652802044152</v>
       </c>
       <c r="D21">
-        <v>2.588542199983716</v>
+        <v>1.317085697247612</v>
       </c>
       <c r="E21">
-        <v>1.998989531176087</v>
+        <v>1.295695754852372</v>
       </c>
       <c r="F21">
-        <v>1.948542896680329</v>
+        <v>1.755369175829725</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.938216783661811</v>
+        <v>1.613816765283318</v>
       </c>
       <c r="C22">
-        <v>1.784791878401503</v>
+        <v>1.480289794943619</v>
       </c>
       <c r="D22">
-        <v>2.660243580065132</v>
+        <v>1.323617840568112</v>
       </c>
       <c r="E22">
-        <v>2.042766513084796</v>
+        <v>1.286601137320226</v>
       </c>
       <c r="F22">
-        <v>1.942424063342519</v>
+        <v>1.789889001294113</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.927852656050574</v>
+        <v>1.593437295779884</v>
       </c>
       <c r="C23">
-        <v>1.80206026614934</v>
+        <v>1.48781215542751</v>
       </c>
       <c r="D23">
-        <v>2.730636992597302</v>
+        <v>1.329427348967501</v>
       </c>
       <c r="E23">
-        <v>2.085696282557415</v>
+        <v>1.277096655487159</v>
       </c>
       <c r="F23">
-        <v>1.936262393174703</v>
+        <v>1.824027339773973</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.916928728703704</v>
+        <v>1.573201205700539</v>
       </c>
       <c r="C24">
-        <v>1.818077387662861</v>
+        <v>1.494257278268424</v>
       </c>
       <c r="D24">
-        <v>2.799585833028807</v>
+        <v>1.334534142239558</v>
       </c>
       <c r="E24">
-        <v>2.127699111354393</v>
+        <v>1.267241334874691</v>
       </c>
       <c r="F24">
-        <v>1.930072709590068</v>
+        <v>1.857751920070462</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.905529226353545</v>
+        <v>1.553121908652671</v>
       </c>
       <c r="C25">
-        <v>1.832903400908571</v>
+        <v>1.499661806738042</v>
       </c>
       <c r="D25">
-        <v>2.866943514557729</v>
+        <v>1.338957765805566</v>
       </c>
       <c r="E25">
-        <v>2.168684236998336</v>
+        <v>1.257086267193745</v>
       </c>
       <c r="F25">
-        <v>1.923865665471785</v>
+        <v>1.891022319416431</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.893724999468887</v>
+        <v>1.533209024660937</v>
       </c>
       <c r="C26">
-        <v>1.846595721715575</v>
+        <v>1.504061645325541</v>
       </c>
       <c r="D26">
-        <v>2.932554367725025</v>
+        <v>1.342717410118569</v>
       </c>
       <c r="E26">
-        <v>2.208549132998233</v>
+        <v>1.246675889587275</v>
       </c>
       <c r="F26">
-        <v>1.917649000029964</v>
+        <v>1.923788478934888</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.881576020636369</v>
+        <v>1.513469461759898</v>
       </c>
       <c r="C27">
-        <v>1.859209125035732</v>
+        <v>1.507491966099392</v>
       </c>
       <c r="D27">
-        <v>2.996254829446319</v>
+        <v>1.345831922694396</v>
       </c>
       <c r="E27">
-        <v>2.24717892525646</v>
+        <v>1.236049007824125</v>
       </c>
       <c r="F27">
-        <v>1.911428433370157</v>
+        <v>1.955988984958704</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.869133388417432</v>
+        <v>1.493908214814431</v>
       </c>
       <c r="C28">
-        <v>1.870795853304886</v>
+        <v>1.5099872131703</v>
       </c>
       <c r="D28">
-        <v>3.057874950199791</v>
+        <v>1.348319823664513</v>
       </c>
       <c r="E28">
-        <v>2.284446059823696</v>
+        <v>1.225239661761485</v>
       </c>
       <c r="F28">
-        <v>1.905208236916383</v>
+        <v>1.987549164072303</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.856440869029096</v>
+        <v>1.474528879115822</v>
       </c>
       <c r="C29">
-        <v>1.881405728326775</v>
+        <v>1.511581109021632</v>
       </c>
       <c r="D29">
-        <v>3.11724017904928</v>
+        <v>1.350199317184714</v>
       </c>
       <c r="E29">
-        <v>2.320210377470761</v>
+        <v>1.214277804866838</v>
       </c>
       <c r="F29">
-        <v>1.898991606153108</v>
+        <v>2.018379240108322</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.843536127305123</v>
+        <v>1.455334001639818</v>
       </c>
       <c r="C30">
-        <v>1.891086265230542</v>
+        <v>1.512306659668476</v>
       </c>
       <c r="D30">
-        <v>3.174173527709317</v>
+        <v>1.351488305664308</v>
       </c>
       <c r="E30">
-        <v>2.354319742103903</v>
+        <v>1.203189868033298</v>
       </c>
       <c r="F30">
-        <v>1.892780956073707</v>
+        <v>2.048372510102308</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.830451736713141</v>
+        <v>1.436325347422889</v>
       </c>
       <c r="C31">
-        <v>1.899882785376728</v>
+        <v>1.512196158289322</v>
       </c>
       <c r="D31">
-        <v>3.228498263423214</v>
+        <v>1.352204398074887</v>
       </c>
       <c r="E31">
-        <v>2.386611427057098</v>
+        <v>1.191999230712811</v>
       </c>
       <c r="F31">
-        <v>1.886578140298482</v>
+        <v>2.077403776787344</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.817216012308161</v>
+        <v>1.417504099039807</v>
       </c>
       <c r="C32">
-        <v>1.907838527763788</v>
+        <v>1.511281192013983</v>
       </c>
       <c r="D32">
-        <v>3.280040833079731</v>
+        <v>1.352364925271765</v>
       </c>
       <c r="E32">
-        <v>2.416914480757856</v>
+        <v>1.180726620815329</v>
       </c>
       <c r="F32">
-        <v>1.880384595912551</v>
+        <v>2.105328492576257</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.803853673164878</v>
+        <v>1.398870997145532</v>
       </c>
       <c r="C33">
-        <v>1.91499475721296</v>
+        <v>1.509592645445395</v>
       </c>
       <c r="D33">
-        <v>3.328634186727682</v>
+        <v>1.351986947192807</v>
       </c>
       <c r="E33">
-        <v>2.445053165686391</v>
+        <v>1.169390452032059</v>
       </c>
       <c r="F33">
-        <v>1.874201437785856</v>
+        <v>2.13198282008593</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.790386376880355</v>
+        <v>1.380426430897119</v>
       </c>
       <c r="C34">
-        <v>1.921390868040295</v>
+        <v>1.50716070737162</v>
       </c>
       <c r="D34">
-        <v>3.374121649712008</v>
+        <v>1.351087265287194</v>
       </c>
       <c r="E34">
-        <v>2.470851619123912</v>
+        <v>1.158007109734519</v>
       </c>
       <c r="F34">
-        <v>1.868029535786609</v>
+        <v>2.157185172400507</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.776833173453128</v>
+        <v>1.362170504882821</v>
       </c>
       <c r="C35">
-        <v>1.927064482840152</v>
+        <v>1.504014875361866</v>
       </c>
       <c r="D35">
-        <v>3.416361254261584</v>
+        <v>1.349682432179292</v>
       </c>
       <c r="E35">
-        <v>2.494139701087168</v>
+        <v>1.146591200600346</v>
       </c>
       <c r="F35">
-        <v>1.861869574496244</v>
+        <v>2.18073955701019</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.763210883669927</v>
+        <v>1.344103100208826</v>
       </c>
       <c r="C36">
-        <v>1.93205154516424</v>
+        <v>1.500183962628455</v>
       </c>
       <c r="D36">
-        <v>3.455230387313402</v>
+        <v>1.347788759213224</v>
       </c>
       <c r="E36">
-        <v>2.514759732820092</v>
+        <v>1.135155764581032</v>
       </c>
       <c r="F36">
-        <v>1.855722105429071</v>
+        <v>2.202441932140283</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.749534406649889</v>
+        <v>1.326223925493865</v>
       </c>
       <c r="C37">
-        <v>1.93638640626834</v>
+        <v>1.495696103056013</v>
       </c>
       <c r="D37">
-        <v>3.490630652554469</v>
+        <v>1.345422327526289</v>
       </c>
       <c r="E37">
-        <v>2.532573822099506</v>
+        <v>1.12371245814684</v>
       </c>
       <c r="F37">
-        <v>1.849587568468145</v>
+        <v>2.222088145809989</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.735816975157363</v>
+        <v>1.308532552810744</v>
       </c>
       <c r="C38">
-        <v>1.940101906119391</v>
+        <v>1.490578757995153</v>
       </c>
       <c r="D38">
-        <v>3.522492732391027</v>
+        <v>1.342598992995253</v>
       </c>
       <c r="E38">
-        <v>2.547471095963709</v>
+        <v>1.112271717156407</v>
       </c>
       <c r="F38">
-        <v>1.843466314702787</v>
+        <v>2.239484722482597</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.722070384103053</v>
+        <v>1.291028439811416</v>
       </c>
       <c r="C39">
-        <v>1.943229448262245</v>
+        <v>1.484858722707204</v>
       </c>
       <c r="D39">
-        <v>3.550780917911359</v>
+        <v>1.339334395000471</v>
       </c>
       <c r="E39">
-        <v>2.559374157292854</v>
+        <v>1.100842900347635</v>
       </c>
       <c r="F39">
-        <v>1.837358625821567</v>
+        <v>2.25446112490297</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.708305182760677</v>
+        <v>1.273710947066581</v>
       </c>
       <c r="C40">
-        <v>1.945799068708054</v>
+        <v>1.478562132370887</v>
       </c>
       <c r="D40">
-        <v>3.575496822206325</v>
+        <v>1.335643963032025</v>
       </c>
       <c r="E40">
-        <v>2.568244025084538</v>
+        <v>1.089434410358342</v>
       </c>
       <c r="F40">
-        <v>1.8312647279892</v>
+        <v>2.266882257083857</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.694530824834965</v>
+        <v>1.256579353711882</v>
       </c>
       <c r="C41">
-        <v>1.947839499087721</v>
+        <v>1.471714470089137</v>
       </c>
       <c r="D41">
-        <v>3.596681787592245</v>
+        <v>1.331542920469092</v>
       </c>
       <c r="E41">
-        <v>2.574082882728597</v>
+        <v>1.078053791081479</v>
       </c>
       <c r="F41">
-        <v>1.825184802078215</v>
+        <v>2.276659594391669</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.680755798493929</v>
+        <v>1.23963287295497</v>
       </c>
       <c r="C42">
-        <v>1.949378224404302</v>
+        <v>1.464340573333458</v>
       </c>
       <c r="D42">
-        <v>3.61441749858117</v>
+        <v>1.327046292856679</v>
       </c>
       <c r="E42">
-        <v>2.576934479181634</v>
+        <v>1.0667078236581</v>
       </c>
       <c r="F42">
-        <v>1.819118996590105</v>
+        <v>2.283759164868453</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.666987741722521</v>
+        <v>1.222870658268022</v>
       </c>
       <c r="C43">
-        <v>1.950441535781333</v>
+        <v>1.456464641739973</v>
       </c>
       <c r="D43">
-        <v>3.628824535457107</v>
+        <v>1.322168909112639</v>
       </c>
       <c r="E43">
-        <v>2.576881883483522</v>
+        <v>1.055402611422859</v>
       </c>
       <c r="F43">
-        <v>1.813067433201313</v>
+        <v>2.288205040246714</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.653233544131557</v>
+        <v>1.206291822275078</v>
       </c>
       <c r="C44">
-        <v>1.951054578574405</v>
+        <v>1.448110245302714</v>
       </c>
       <c r="D44">
-        <v>3.64005872706894</v>
+        <v>1.316925407018651</v>
       </c>
       <c r="E44">
-        <v>2.574043054399481</v>
+        <v>1.044143652123096</v>
       </c>
       <c r="F44">
-        <v>1.807030212208314</v>
+        <v>2.290077707747229</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.639499434150473</v>
+        <v>1.189895429287177</v>
       </c>
       <c r="C45">
-        <v>1.951241396698451</v>
+        <v>1.439300331384767</v>
       </c>
       <c r="D45">
-        <v>3.648305475282481</v>
+        <v>1.311330236338064</v>
       </c>
       <c r="E45">
-        <v>2.568564858458702</v>
+        <v>1.032935900657239</v>
       </c>
       <c r="F45">
-        <v>1.801007420370001</v>
+        <v>2.289507640345862</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.625791056132605</v>
+        <v>1.17368051197377</v>
       </c>
       <c r="C46">
-        <v>1.951024972965991</v>
+        <v>1.430057234016182</v>
       </c>
       <c r="D46">
-        <v>3.653772640214066</v>
+        <v>1.305397658632368</v>
       </c>
       <c r="E46">
-        <v>2.56061600202421</v>
+        <v>1.021783823900908</v>
       </c>
       <c r="F46">
-        <v>1.794999123419114</v>
+        <v>2.286665224539416</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.612113530982402</v>
+        <v>1.157646067409161</v>
       </c>
       <c r="C47">
-        <v>1.950427266453766</v>
+        <v>1.420402681735822</v>
       </c>
       <c r="D47">
-        <v>3.656682652871468</v>
+        <v>1.299141752268956</v>
       </c>
       <c r="E47">
-        <v>2.55037978899838</v>
+        <v>1.010691449392833</v>
       </c>
       <c r="F47">
-        <v>1.789005381416352</v>
+        <v>2.281748704465743</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.598471510928483</v>
+        <v>1.14179106284048</v>
       </c>
       <c r="C48">
-        <v>1.949469247448655</v>
+        <v>1.410357806110245</v>
       </c>
       <c r="D48">
-        <v>3.657264644185319</v>
+        <v>1.292576409205309</v>
       </c>
       <c r="E48">
-        <v>2.538047225614886</v>
+        <v>0.9996624087998295</v>
       </c>
       <c r="F48">
-        <v>1.783026235135456</v>
+        <v>2.274971880068576</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.584869229063439</v>
+        <v>1.126114441209389</v>
       </c>
       <c r="C49">
-        <v>1.94817093020908</v>
+        <v>1.399943151245481</v>
       </c>
       <c r="D49">
-        <v>3.65574721566913</v>
+        <v>1.285715337077416</v>
       </c>
       <c r="E49">
-        <v>2.523810908500681</v>
+        <v>0.9886999771928161</v>
       </c>
       <c r="F49">
-        <v>1.777061721853438</v>
+        <v>2.266552747957016</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.571310542746425</v>
+        <v>1.11061512155558</v>
       </c>
       <c r="C50">
-        <v>1.946551404069351</v>
+        <v>1.38917868195481</v>
       </c>
       <c r="D50">
-        <v>3.652352376488051</v>
+        <v>1.278572058189569</v>
       </c>
       <c r="E50">
-        <v>2.507860005267491</v>
+        <v>0.9778071070168535</v>
       </c>
       <c r="F50">
-        <v>1.77111186658136</v>
+        <v>2.256704374919845</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.55779897174413</v>
+        <v>1.095292002710505</v>
       </c>
       <c r="C51">
-        <v>1.94462886328296</v>
+        <v>1.378083793633968</v>
       </c>
       <c r="D51">
-        <v>3.647290894782143</v>
+        <v>1.271159905528147</v>
       </c>
       <c r="E51">
-        <v>2.490376336189672</v>
+        <v>0.9669864583469489</v>
       </c>
       <c r="F51">
-        <v>1.765176690320499</v>
+        <v>2.245627895544067</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.544337822383874</v>
+        <v>1.080143965769842</v>
       </c>
       <c r="C52">
-        <v>1.942420702834477</v>
+        <v>1.366677321474356</v>
       </c>
       <c r="D52">
-        <v>3.640759186121298</v>
+        <v>1.263492023970999</v>
       </c>
       <c r="E52">
-        <v>2.471531973087028</v>
+        <v>0.9562404258331123</v>
       </c>
       <c r="F52">
-        <v>1.759256217958608</v>
+        <v>2.233508674781824</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.544851009707266</v>
+        <v>1.065169873976678</v>
       </c>
       <c r="C53">
-        <v>1.988594128293334</v>
+        <v>1.354977549464644</v>
       </c>
       <c r="D53">
-        <v>3.720640277529542</v>
+        <v>1.255581363195442</v>
       </c>
       <c r="E53">
-        <v>2.548095784985714</v>
+        <v>0.9455711628457617</v>
       </c>
       <c r="F53">
-        <v>1.753366857676501</v>
+        <v>2.220513468687106</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.544921467090395</v>
+        <v>1.05036857631166</v>
       </c>
       <c r="C54">
-        <v>2.031994715209672</v>
+        <v>1.343002220791209</v>
       </c>
       <c r="D54">
-        <v>3.788735825977911</v>
+        <v>1.247440676171616</v>
       </c>
       <c r="E54">
-        <v>2.612716054305485</v>
+        <v>0.9349806031105915</v>
       </c>
       <c r="F54">
-        <v>1.747492473164005</v>
+        <v>2.206789706656746</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.544576899168335</v>
+        <v>1.035738906373051</v>
       </c>
       <c r="C55">
-        <v>2.072773356525882</v>
+        <v>1.330768546902301</v>
       </c>
       <c r="D55">
-        <v>3.846507181063213</v>
+        <v>1.239082514321175</v>
       </c>
       <c r="E55">
-        <v>2.666735307040831</v>
+        <v>0.9244704800668231</v>
       </c>
       <c r="F55">
-        <v>1.74163115318673</v>
+        <v>2.192466056128477</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.543843573032309</v>
+        <v>1.021279684890083</v>
       </c>
       <c r="C56">
-        <v>2.111072963730122</v>
+        <v>1.318293217662547</v>
       </c>
       <c r="D56">
-        <v>3.895250648900116</v>
+        <v>1.230519220465806</v>
       </c>
       <c r="E56">
-        <v>2.711362415797775</v>
+        <v>0.9140423441972044</v>
       </c>
       <c r="F56">
-        <v>1.735783319671164</v>
+        <v>2.177653483975317</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.542745676049358</v>
+        <v>1.006989720371964</v>
       </c>
       <c r="C57">
-        <v>2.147029001732832</v>
+        <v>1.305592411285871</v>
       </c>
       <c r="D57">
-        <v>3.93610816505122</v>
+        <v>1.221762926254368</v>
       </c>
       <c r="E57">
-        <v>2.747679503735996</v>
+        <v>0.9036975785576105</v>
       </c>
       <c r="F57">
-        <v>1.729949198474938</v>
+        <v>2.16244677958114</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.541305648989479</v>
+        <v>0.9928678099718604</v>
       </c>
       <c r="C58">
-        <v>2.180769808810498</v>
+        <v>1.292681803984325</v>
       </c>
       <c r="D58">
-        <v>3.97008121170852</v>
+        <v>1.212825542595023</v>
       </c>
       <c r="E58">
-        <v>2.776650672563477</v>
+        <v>0.8934374115002031</v>
       </c>
       <c r="F58">
-        <v>1.724128566284008</v>
+        <v>2.146926387659227</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.539544462034597</v>
+        <v>0.9789127405920588</v>
       </c>
       <c r="C59">
-        <v>2.212416872945203</v>
+        <v>1.279576580407061</v>
       </c>
       <c r="D59">
-        <v>3.998044595130203</v>
+        <v>1.203718755194372</v>
       </c>
       <c r="E59">
-        <v>2.799131852416753</v>
+        <v>0.8832629327098309</v>
       </c>
       <c r="F59">
-        <v>1.718321837838734</v>
+        <v>2.13116028263142</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.537481634665232</v>
+        <v>0.9651232895949567</v>
       </c>
       <c r="C60">
-        <v>2.242085123225764</v>
+        <v>1.266291443416722</v>
       </c>
       <c r="D60">
-        <v>4.020759904748733</v>
+        <v>1.194454016998752</v>
       </c>
       <c r="E60">
-        <v>2.815880326528412</v>
+        <v>0.8731750994657645</v>
       </c>
       <c r="F60">
-        <v>1.712529108100254</v>
+        <v>2.115205665031723</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.535135353151653</v>
+        <v>0.9514982253380683</v>
       </c>
       <c r="C61">
-        <v>2.269883186389251</v>
+        <v>1.25284062426729</v>
       </c>
       <c r="D61">
-        <v>4.038889462448499</v>
+        <v>1.185042540146892</v>
       </c>
       <c r="E61">
-        <v>2.827565149037993</v>
+        <v>0.8631747556499362</v>
       </c>
       <c r="F61">
-        <v>1.706750339402306</v>
+        <v>2.099110481853448</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.532522529267106</v>
+        <v>0.9380363082115232</v>
       </c>
       <c r="C62">
-        <v>2.295913662199153</v>
+        <v>1.23923789275355</v>
       </c>
       <c r="D62">
-        <v>4.053008460280124</v>
+        <v>1.175495290208116</v>
       </c>
       <c r="E62">
-        <v>2.83477654666673</v>
+        <v>0.8532626308460818</v>
       </c>
       <c r="F62">
-        <v>1.700985548835621</v>
+        <v>2.082914820647848</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.529659086498442</v>
+        <v>0.9247362906979695</v>
       </c>
       <c r="C63">
-        <v>2.320273439478366</v>
+        <v>1.225496567194365</v>
       </c>
       <c r="D63">
-        <v>4.063615836944056</v>
+        <v>1.165822977094762</v>
       </c>
       <c r="E63">
-        <v>2.838034253042616</v>
+        <v>0.8434393565484948</v>
       </c>
       <c r="F63">
-        <v>1.695234798131955</v>
+        <v>2.06665216240696</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.526559972009269</v>
+        <v>0.9115969183639258</v>
       </c>
       <c r="C64">
-        <v>2.343054004351974</v>
+        <v>1.211629524616093</v>
       </c>
       <c r="D64">
-        <v>4.071144597260017</v>
+        <v>1.156036048921648</v>
       </c>
       <c r="E64">
-        <v>2.837795986146739</v>
+        <v>0.8337054693884539</v>
       </c>
       <c r="F64">
-        <v>1.689498162798223</v>
+        <v>2.05035045613637</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.523239150299951</v>
+        <v>0.8986169301640131</v>
       </c>
       <c r="C65">
-        <v>2.364341717731648</v>
+        <v>1.197649210627223</v>
       </c>
       <c r="D65">
-        <v>4.075970701706195</v>
+        <v>1.14614468410357</v>
       </c>
       <c r="E65">
-        <v>2.834464809542547</v>
+        <v>0.8240614179559407</v>
       </c>
       <c r="F65">
-        <v>1.683775696779587</v>
+        <v>2.034033018791894</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.519709692896547</v>
+        <v>0.8857950590517916</v>
       </c>
       <c r="C66">
-        <v>2.384218018954735</v>
+        <v>1.183567649711521</v>
       </c>
       <c r="D66">
-        <v>4.078420737542685</v>
+        <v>1.136158785069461</v>
       </c>
       <c r="E66">
-        <v>2.82839561658524</v>
+        <v>0.8145075729198502</v>
       </c>
       <c r="F66">
-        <v>1.678067436973685</v>
+        <v>2.017719291568527</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.515983887712139</v>
+        <v>0.8731300325154631</v>
       </c>
       <c r="C67">
-        <v>2.402759674808742</v>
+        <v>1.169396454861572</v>
       </c>
       <c r="D67">
-        <v>4.078778636769409</v>
+        <v>1.126087970965553</v>
       </c>
       <c r="E67">
-        <v>2.819900987825192</v>
+        <v>0.8050442288319684</v>
       </c>
       <c r="F67">
-        <v>1.672373419490401</v>
+        <v>2.001425483875815</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.512073303785193</v>
+        <v>0.8606205729838698</v>
       </c>
       <c r="C68">
-        <v>2.420039044880109</v>
+        <v>1.155146837269414</v>
       </c>
       <c r="D68">
-        <v>4.077291592283084</v>
+        <v>1.11594157250204</v>
       </c>
       <c r="E68">
-        <v>2.809256450085684</v>
+        <v>0.7956716130309843</v>
       </c>
       <c r="F68">
-        <v>1.666693660181303</v>
+        <v>1.985165116585004</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.507988826784994</v>
+        <v>0.8482653983294648</v>
       </c>
       <c r="C69">
-        <v>2.436124327613152</v>
+        <v>1.140829617431476</v>
       </c>
       <c r="D69">
-        <v>4.07417509593687</v>
+        <v>1.10572862604788</v>
       </c>
       <c r="E69">
-        <v>2.796705109719125</v>
+        <v>0.7863898885006002</v>
       </c>
       <c r="F69">
-        <v>1.661028190984687</v>
+        <v>1.968949472389927</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.503740704204417</v>
+        <v>0.8360632223025837</v>
       </c>
       <c r="C70">
-        <v>2.451079792604508</v>
+        <v>1.126455232118439</v>
       </c>
       <c r="D70">
-        <v>4.069617268821367</v>
+        <v>1.095457868324144</v>
       </c>
       <c r="E70">
-        <v>2.782461652590768</v>
+        <v>0.7771991589604182</v>
       </c>
       <c r="F70">
-        <v>1.655377011456599</v>
+        <v>1.952787968531473</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.499338591406149</v>
+        <v>0.8240127548927217</v>
       </c>
       <c r="C71">
-        <v>2.464965997463445</v>
+        <v>1.112033747692051</v>
       </c>
       <c r="D71">
-        <v>4.063782615618261</v>
+        <v>1.085137734058813</v>
       </c>
       <c r="E71">
-        <v>2.766715880706961</v>
+        <v>0.7680994739078796</v>
       </c>
       <c r="F71">
-        <v>1.649740147108176</v>
+        <v>1.93668846590045</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.494791601006218</v>
+        <v>0.8121127027975565</v>
       </c>
       <c r="C72">
-        <v>2.477839994525881</v>
+        <v>1.097574866747393</v>
       </c>
       <c r="D72">
-        <v>4.056815223096232</v>
+        <v>1.074776350027189</v>
       </c>
       <c r="E72">
-        <v>2.749635804916799</v>
+        <v>0.7590908300340239</v>
       </c>
       <c r="F72">
-        <v>1.644117599129629</v>
+        <v>1.920657527246873</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.490108330107814</v>
+        <v>0.8003617697503234</v>
       </c>
       <c r="C73">
-        <v>2.489755529776723</v>
+        <v>1.083087937302573</v>
       </c>
       <c r="D73">
-        <v>4.048841512599167</v>
+        <v>1.064381536660953</v>
       </c>
       <c r="E73">
-        <v>2.731370345271396</v>
+        <v>0.7501731776758543</v>
       </c>
       <c r="F73">
-        <v>1.638509383521109</v>
+        <v>1.904700631887389</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.485296910928049</v>
+        <v>0.7887586570946885</v>
       </c>
       <c r="C74">
-        <v>2.500763233624201</v>
+        <v>1.068581965679811</v>
       </c>
       <c r="D74">
-        <v>4.0399726123568</v>
+        <v>1.053960803143193</v>
       </c>
       <c r="E74">
-        <v>2.712051692781261</v>
+        <v>0.7413464212862906</v>
       </c>
       <c r="F74">
-        <v>1.632915505368371</v>
+        <v>1.888822353378399</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.480365031144508</v>
+        <v>0.7773020637608314</v>
       </c>
       <c r="C75">
-        <v>2.510910814120113</v>
+        <v>1.054065618892422</v>
       </c>
       <c r="D75">
-        <v>4.030306376155663</v>
+        <v>1.043521347426695</v>
       </c>
       <c r="E75">
-        <v>2.691797353023201</v>
+        <v>0.732610424501607</v>
       </c>
       <c r="F75">
-        <v>1.627335971819383</v>
+        <v>1.87302650662276</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.475319970248053</v>
+        <v>0.7659906872606236</v>
       </c>
       <c r="C76">
-        <v>2.520243209842456</v>
+        <v>1.039547241445254</v>
       </c>
       <c r="D76">
-        <v>4.019929126872928</v>
+        <v>1.033070059281249</v>
       </c>
       <c r="E76">
-        <v>2.670711938049206</v>
+        <v>0.7239650119576877</v>
       </c>
       <c r="F76">
-        <v>1.621770786969425</v>
+        <v>1.857316270184758</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.470168620444156</v>
+        <v>0.7548232234735492</v>
       </c>
       <c r="C77">
-        <v>2.528802804857053</v>
+        <v>1.025034858565872</v>
       </c>
       <c r="D77">
-        <v>4.008917161693416</v>
+        <v>1.022613517055579</v>
       </c>
       <c r="E77">
-        <v>2.648888728075854</v>
+        <v>0.7154099705513572</v>
       </c>
       <c r="F77">
-        <v>1.616219952143352</v>
+        <v>1.84169428820514</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.464917510926411</v>
+        <v>0.7437983671548785</v>
       </c>
       <c r="C78">
-        <v>2.536629507975067</v>
+        <v>1.010536185143859</v>
       </c>
       <c r="D78">
-        <v>3.997338034541835</v>
+        <v>1.012157995168758</v>
       </c>
       <c r="E78">
-        <v>2.626411034734276</v>
+        <v>0.7069450557964894</v>
       </c>
       <c r="F78">
-        <v>1.610683467699545</v>
+        <v>1.826162755244633</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.459572834586119</v>
+        <v>0.7329148126183936</v>
       </c>
       <c r="C79">
-        <v>2.543760983780376</v>
+        <v>0.9960586389755226</v>
       </c>
       <c r="D79">
-        <v>3.985251667182667</v>
+        <v>1.001709463832831</v>
       </c>
       <c r="E79">
-        <v>2.603353384206363</v>
+        <v>0.6985699913146537</v>
       </c>
       <c r="F79">
-        <v>1.605161331675247</v>
+        <v>1.810723486731213</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.45414046544709</v>
+        <v>0.7221712533488376</v>
       </c>
       <c r="C80">
-        <v>2.550232708855416</v>
+        <v>0.9816093405092706</v>
       </c>
       <c r="D80">
-        <v>3.972711312560078</v>
+        <v>0.9912735940082456</v>
       </c>
       <c r="E80">
-        <v>2.579782552936448</v>
+        <v>0.690284467877645</v>
       </c>
       <c r="F80">
-        <v>1.599653540982748</v>
+        <v>1.795377974185986</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.448625980315769</v>
+        <v>0.7115663831431831</v>
       </c>
       <c r="C81">
-        <v>2.556078157207164</v>
+        <v>0.9671951308007034</v>
       </c>
       <c r="D81">
-        <v>3.959764378647172</v>
+        <v>0.98085576418377</v>
       </c>
       <c r="E81">
-        <v>2.555758478807701</v>
+        <v>0.6820881561929943</v>
       </c>
       <c r="F81">
-        <v>1.594160091474105</v>
+        <v>1.780127442444578</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.443034678293736</v>
+        <v>0.7010988958456822</v>
       </c>
       <c r="C82">
-        <v>2.561328902534659</v>
+        <v>0.9528225723289058</v>
       </c>
       <c r="D82">
-        <v>3.946453142505821</v>
+        <v>0.9704610621278468</v>
       </c>
       <c r="E82">
-        <v>2.531335049063253</v>
+        <v>0.6739806937814374</v>
       </c>
       <c r="F82">
-        <v>1.588680977761082</v>
+        <v>1.764972888766386</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.437371596209308</v>
+        <v>0.6907674858653433</v>
       </c>
       <c r="C83">
-        <v>2.566014724102502</v>
+        <v>0.938497957442289</v>
       </c>
       <c r="D83">
-        <v>3.932815369746598</v>
+        <v>0.9600942955328945</v>
       </c>
       <c r="E83">
-        <v>2.506560793755685</v>
+        <v>0.6659616974787776</v>
       </c>
       <c r="F83">
-        <v>1.583216193884873</v>
+        <v>1.74991511185758</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.431641523268452</v>
+        <v>0.6805708485854423</v>
       </c>
       <c r="C84">
-        <v>2.570163759932181</v>
+        <v>0.92422732148475</v>
       </c>
       <c r="D84">
-        <v>3.918884864724499</v>
+        <v>0.9497599959921493</v>
       </c>
       <c r="E84">
-        <v>2.481479494624808</v>
+        <v>0.6580307647064816</v>
       </c>
       <c r="F84">
-        <v>1.577765732586915</v>
+        <v>1.734954753076029</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.425849015454076</v>
+        <v>0.670507680416516</v>
       </c>
       <c r="C85">
-        <v>2.573802438745648</v>
+        <v>0.9100164398817975</v>
       </c>
       <c r="D85">
-        <v>3.904691916856872</v>
+        <v>0.9394624274009156</v>
       </c>
       <c r="E85">
-        <v>2.456130709909843</v>
+        <v>0.650187463596908</v>
       </c>
       <c r="F85">
-        <v>1.57232954819874</v>
+        <v>1.720092304301539</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.412611851795017</v>
+        <v>0.6605766794003636</v>
       </c>
       <c r="C86">
-        <v>2.565210359205139</v>
+        <v>0.8958708471256368</v>
       </c>
       <c r="D86">
-        <v>3.88668250634465</v>
+        <v>0.9292055951109983</v>
       </c>
       <c r="E86">
-        <v>2.425942366281796</v>
+        <v>0.6424313503335873</v>
       </c>
       <c r="F86">
-        <v>1.566905683355033</v>
+        <v>1.705328134450628</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.399466818459829</v>
+        <v>0.6507765452271487</v>
       </c>
       <c r="C87">
-        <v>2.556598667741827</v>
+        <v>0.8817958351956608</v>
       </c>
       <c r="D87">
-        <v>3.868703712452218</v>
+        <v>0.9189932517329796</v>
       </c>
       <c r="E87">
-        <v>2.395876373449725</v>
+        <v>0.6347619592452912</v>
       </c>
       <c r="F87">
-        <v>1.56149603268782</v>
+        <v>1.690662509494752</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.386414075483383</v>
+        <v>0.6411059796841665</v>
       </c>
       <c r="C88">
-        <v>2.547969949699336</v>
+        <v>0.8677964616128371</v>
       </c>
       <c r="D88">
-        <v>3.850757739601755</v>
+        <v>0.9088289086532059</v>
       </c>
       <c r="E88">
-        <v>2.365937388042468</v>
+        <v>0.6271788064245187</v>
       </c>
       <c r="F88">
-        <v>1.556100736615998</v>
+        <v>1.67609560730661</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.373453636701907</v>
+        <v>0.6315636869335503</v>
       </c>
       <c r="C89">
-        <v>2.539326290746356</v>
+        <v>0.8538775616755911</v>
       </c>
       <c r="D89">
-        <v>3.832846576729585</v>
+        <v>0.89871584293108</v>
       </c>
       <c r="E89">
-        <v>2.336129290042485</v>
+        <v>0.6196813945817413</v>
       </c>
       <c r="F89">
-        <v>1.55071975326066</v>
+        <v>1.661627529072939</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.360585498011415</v>
+        <v>0.6221483735753653</v>
       </c>
       <c r="C90">
-        <v>2.530669659813107</v>
+        <v>0.8400437444748513</v>
       </c>
       <c r="D90">
-        <v>3.814972020924986</v>
+        <v>0.8886571071928434</v>
       </c>
       <c r="E90">
-        <v>2.306455692193087</v>
+        <v>0.6122692087234826</v>
       </c>
       <c r="F90">
-        <v>1.545353098377977</v>
+        <v>1.647258309742172</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.347809635614244</v>
+        <v>0.6128587492681964</v>
       </c>
       <c r="C91">
-        <v>2.522001910543433</v>
+        <v>0.826299411004632</v>
       </c>
       <c r="D91">
-        <v>3.79713569510007</v>
+        <v>0.8786555389734924</v>
       </c>
       <c r="E91">
-        <v>2.276920008577576</v>
+        <v>0.6049417221600605</v>
       </c>
       <c r="F91">
-        <v>1.540000773538818</v>
+        <v>1.632987929334976</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.335126004807619</v>
+        <v>0.6036935266159585</v>
       </c>
       <c r="C92">
-        <v>2.513324793023398</v>
+        <v>0.8126487512988414</v>
       </c>
       <c r="D92">
-        <v>3.779339061232676</v>
+        <v>0.8687137691982517</v>
       </c>
       <c r="E92">
-        <v>2.247525476393849</v>
+        <v>0.5976983947417599</v>
       </c>
       <c r="F92">
-        <v>1.534662767580279</v>
+        <v>1.618816316164744</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.322534541901141</v>
+        <v>0.5946514216784357</v>
       </c>
       <c r="C93">
-        <v>2.504639962197915</v>
+        <v>0.7990957519377556</v>
       </c>
       <c r="D93">
-        <v>3.761583443032832</v>
+        <v>0.858834232213712</v>
       </c>
       <c r="E93">
-        <v>2.218275166284601</v>
+        <v>0.590538673214843</v>
       </c>
       <c r="F93">
-        <v>1.529339063987694</v>
+        <v>1.604743355470942</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.310035166173885</v>
+        <v>0.5857311541515952</v>
       </c>
       <c r="C94">
-        <v>2.495948984068801</v>
+        <v>0.7856442070746039</v>
       </c>
       <c r="D94">
-        <v>3.74387005125564</v>
+        <v>0.8490191743014267</v>
       </c>
       <c r="E94">
-        <v>2.189172007675161</v>
+        <v>0.5834619953615234</v>
       </c>
       <c r="F94">
-        <v>1.524029646226104</v>
+        <v>1.590768895276399</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.297627780925068</v>
+        <v>0.5769314474735491</v>
       </c>
       <c r="C95">
-        <v>2.487253340898901</v>
+        <v>0.7722977139726135</v>
       </c>
       <c r="D95">
-        <v>3.726199956871485</v>
+        <v>0.8392706630942</v>
       </c>
       <c r="E95">
-        <v>2.160218792710846</v>
+        <v>0.5764677865409545</v>
       </c>
       <c r="F95">
-        <v>1.518734497799912</v>
+        <v>1.576892750206792</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.285312274298806</v>
+        <v>0.5682510293348878</v>
       </c>
       <c r="C96">
-        <v>2.47855443601027</v>
+        <v>0.7590596896222583</v>
       </c>
       <c r="D96">
-        <v>3.708574166856417</v>
+        <v>0.8295905960082444</v>
       </c>
       <c r="E96">
-        <v>2.131418194455735</v>
+        <v>0.5695554633632249</v>
       </c>
       <c r="F96">
-        <v>1.513453602234388</v>
+        <v>1.563114704970839</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.273088518802496</v>
+        <v>0.5596886315946022</v>
       </c>
       <c r="C97">
-        <v>2.469853598338311</v>
+        <v>0.7459333675150891</v>
       </c>
       <c r="D97">
-        <v>3.690993575883653</v>
+        <v>0.8199807094722766</v>
       </c>
       <c r="E97">
-        <v>2.102772795394104</v>
+        <v>0.5627244343756468</v>
       </c>
       <c r="F97">
-        <v>1.508186943060553</v>
+        <v>1.549434523834811</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.260956372610236</v>
+        <v>0.5512429907723454</v>
       </c>
       <c r="C98">
-        <v>2.461152086748991</v>
+        <v>0.7329218046126796</v>
       </c>
       <c r="D98">
-        <v>3.673459013775408</v>
+        <v>0.8104425867191266</v>
       </c>
       <c r="E98">
-        <v>2.07428506950435</v>
+        <v>0.5559740977280848</v>
       </c>
       <c r="F98">
-        <v>1.502934503666398</v>
+        <v>1.535851940373661</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.248915680195866</v>
+        <v>0.5429128481375555</v>
       </c>
       <c r="C99">
-        <v>2.452451093330232</v>
+        <v>0.7200278904828679</v>
       </c>
       <c r="D99">
-        <v>3.655971242413659</v>
+        <v>0.8009776664275399</v>
       </c>
       <c r="E99">
-        <v>2.045957419188132</v>
+        <v>0.5493038461132999</v>
       </c>
       <c r="F99">
-        <v>1.49769626732522</v>
+        <v>1.522366683094654</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.236966271931761</v>
+        <v>0.5346969498563905</v>
       </c>
       <c r="C100">
-        <v>2.443751741327822</v>
+        <v>0.7072543435651312</v>
       </c>
       <c r="D100">
-        <v>3.638530947388998</v>
+        <v>0.7915872506509939</v>
       </c>
       <c r="E100">
-        <v>2.017792173177294</v>
+        <v>0.5427130642692823</v>
       </c>
       <c r="F100">
-        <v>1.492472217233198</v>
+        <v>1.508978447825762</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.225107967735856</v>
+        <v>0.5265940474340434</v>
       </c>
       <c r="C101">
-        <v>2.435055115096642</v>
+        <v>0.6946037255522772</v>
       </c>
       <c r="D101">
-        <v>3.621138763537992</v>
+        <v>0.7822725118182351</v>
       </c>
       <c r="E101">
-        <v>1.989791585213959</v>
+        <v>0.5362011302291478</v>
       </c>
       <c r="F101">
-        <v>1.487262336477343</v>
+        <v>1.495686928118328</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.21334057182145</v>
+        <v>0.5186028975774787</v>
       </c>
       <c r="C102">
-        <v>2.426362233852281</v>
+        <v>0.6820784381711485</v>
       </c>
       <c r="D102">
-        <v>3.603795271288276</v>
+        <v>0.7730345013230555</v>
       </c>
       <c r="E102">
-        <v>1.961957849940395</v>
+        <v>0.5297674171703602</v>
       </c>
       <c r="F102">
-        <v>1.482066608076898</v>
+        <v>1.482491797900693</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.201663878513357</v>
+        <v>0.5107222627408894</v>
       </c>
       <c r="C103">
-        <v>2.417674060506418</v>
+        <v>0.6696807295526791</v>
       </c>
       <c r="D103">
-        <v>3.586500996860338</v>
+        <v>0.7638741551682079</v>
       </c>
       <c r="E103">
-        <v>1.934293107559219</v>
+        <v>0.5234112917920043</v>
       </c>
       <c r="F103">
-        <v>1.476885014956876</v>
+        <v>1.469392716886248</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.190077671913553</v>
+        <v>0.5029509110907628</v>
       </c>
       <c r="C104">
-        <v>2.408991512504467</v>
+        <v>0.6574127018733372</v>
       </c>
       <c r="D104">
-        <v>3.569256434628</v>
+        <v>0.7547923017376806</v>
       </c>
       <c r="E104">
-        <v>1.906799444908571</v>
+        <v>0.5171321170033252</v>
       </c>
       <c r="F104">
-        <v>1.471717539968959</v>
+        <v>1.456389338386469</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.178581720122994</v>
+        <v>0.4952876166890747</v>
       </c>
       <c r="C105">
-        <v>2.40031545315839</v>
+        <v>0.645276307967257</v>
       </c>
       <c r="D105">
-        <v>3.55206201723056</v>
+        <v>0.7457896679894325</v>
       </c>
       <c r="E105">
-        <v>1.879478903307577</v>
+        <v>0.5109292511469533</v>
       </c>
       <c r="F105">
-        <v>1.466564165903764</v>
+        <v>1.443481300596603</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.167175787340494</v>
+        <v>0.4877311598720491</v>
       </c>
       <c r="C106">
-        <v>2.391646707656213</v>
+        <v>0.633273363925786</v>
       </c>
       <c r="D106">
-        <v>3.534918167131799</v>
+        <v>0.7368668849629063</v>
       </c>
       <c r="E106">
-        <v>1.852333473977925</v>
+        <v>0.5048020481758554</v>
       </c>
       <c r="F106">
-        <v>1.461424875420364</v>
+        <v>1.430668236410412</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.155859623007237</v>
+        <v>0.480280327100827</v>
       </c>
       <c r="C107">
-        <v>2.382986056523905</v>
+        <v>0.6214055463440371</v>
       </c>
       <c r="D107">
-        <v>3.517825248126881</v>
+        <v>0.7280244950235351</v>
       </c>
       <c r="E107">
-        <v>1.825365122015953</v>
+        <v>0.4987498595581382</v>
       </c>
       <c r="F107">
-        <v>1.456299651086855</v>
+        <v>1.417949768986438</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.144632967503728</v>
+        <v>0.4729339114806994</v>
       </c>
       <c r="C108">
-        <v>2.37433424452083</v>
+        <v>0.6096743980601269</v>
       </c>
       <c r="D108">
-        <v>3.500783600456537</v>
+        <v>0.7192629558032949</v>
       </c>
       <c r="E108">
-        <v>1.798575754706981</v>
+        <v>0.4927720329756072</v>
       </c>
       <c r="F108">
-        <v>1.451188475447123</v>
+        <v>1.405325515835612</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.133495554254083</v>
+        <v>0.4656907126732772</v>
       </c>
       <c r="C109">
-        <v>2.365691980274007</v>
+        <v>0.5980813340654828</v>
       </c>
       <c r="D109">
-        <v>3.483793548191914</v>
+        <v>0.710582646650142</v>
       </c>
       <c r="E109">
-        <v>1.771967268533545</v>
+        <v>0.4868679138058131</v>
       </c>
       <c r="F109">
-        <v>1.446091330937721</v>
+        <v>1.392795086518519</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.122447106018698</v>
+        <v>0.4585495370987227</v>
       </c>
       <c r="C110">
-        <v>2.357059936012607</v>
+        <v>0.5866276397230518</v>
       </c>
       <c r="D110">
-        <v>3.466855374794999</v>
+        <v>0.7019838732434284</v>
       </c>
       <c r="E110">
-        <v>1.745541512140031</v>
+        <v>0.4810368455069665</v>
       </c>
       <c r="F110">
-        <v>1.44100819989312</v>
+        <v>1.380358086724659</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.111487337198028</v>
+        <v>0.4515091982333989</v>
       </c>
       <c r="C111">
-        <v>2.348438751403864</v>
+        <v>0.57531448062094</v>
       </c>
       <c r="D111">
-        <v>3.449969351048783</v>
+        <v>0.6934668717847409</v>
       </c>
       <c r="E111">
-        <v>1.719300312954994</v>
+        <v>0.4752781688280816</v>
       </c>
       <c r="F111">
-        <v>1.435939064618389</v>
+        <v>1.368014115691978</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.100615953883767</v>
+        <v>0.4445685164743592</v>
       </c>
       <c r="C112">
-        <v>2.339829035263114</v>
+        <v>0.5641429008706546</v>
       </c>
       <c r="D112">
-        <v>3.433135725731642</v>
+        <v>0.6850318142819574</v>
       </c>
       <c r="E112">
-        <v>1.693245472373124</v>
+        <v>0.4695912238307284</v>
       </c>
       <c r="F112">
-        <v>1.430883907318153</v>
+        <v>1.355762767912128</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.08983265500004</v>
+        <v>0.4377263196103625</v>
       </c>
       <c r="C113">
-        <v>2.331231367689093</v>
+        <v>0.5531138281659825</v>
       </c>
       <c r="D113">
-        <v>3.416354725134463</v>
+        <v>0.6766788111522194</v>
       </c>
       <c r="E113">
-        <v>1.667378763335336</v>
+        <v>0.463975348950525</v>
       </c>
       <c r="F113">
-        <v>1.425842710130466</v>
+        <v>1.343603634191172</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.079137129858117</v>
+        <v>0.4309814426974584</v>
       </c>
       <c r="C114">
-        <v>2.322646300815544</v>
+        <v>0.5422280785189419</v>
       </c>
       <c r="D114">
-        <v>3.399626558526115</v>
+        <v>0.6684079198013249</v>
       </c>
       <c r="E114">
-        <v>1.641701932930848</v>
+        <v>0.4584298815732034</v>
       </c>
       <c r="F114">
-        <v>1.420815455107622</v>
+        <v>1.331536299781758</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.068529061709958</v>
+        <v>0.4243327282726814</v>
       </c>
       <c r="C115">
-        <v>2.314074352075586</v>
+        <v>0.5314863554087431</v>
       </c>
       <c r="D115">
-        <v>3.382951422178557</v>
+        <v>0.6602191390841122</v>
       </c>
       <c r="E115">
-        <v>1.616216708409453</v>
+        <v>0.4529541589569264</v>
       </c>
       <c r="F115">
-        <v>1.41580212424785</v>
+        <v>1.319560347451457</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.058008126091106</v>
+        <v>0.4177790265755157</v>
       </c>
       <c r="C116">
-        <v>2.305516031662271</v>
+        <v>0.5208892578080593</v>
       </c>
       <c r="D116">
-        <v>3.366329488156513</v>
+        <v>0.6521124257765997</v>
       </c>
       <c r="E116">
-        <v>1.590924785569627</v>
+        <v>0.4475475174096338</v>
       </c>
       <c r="F116">
-        <v>1.410802699459534</v>
+        <v>1.307675355381254</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.047573991160637</v>
+        <v>0.4113191954246394</v>
       </c>
       <c r="C117">
-        <v>2.29697180674878</v>
+        <v>0.5104372792508741</v>
       </c>
       <c r="D117">
-        <v>3.349760921236932</v>
+        <v>0.6440876891521794</v>
       </c>
       <c r="E117">
-        <v>1.5658278435664</v>
+        <v>0.4422092937159735</v>
       </c>
       <c r="F117">
-        <v>1.405817162575662</v>
+        <v>1.295880899159276</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.037226318625608</v>
+        <v>0.4049521006410172</v>
       </c>
       <c r="C118">
-        <v>2.288442118135798</v>
+        <v>0.5001308123142262</v>
       </c>
       <c r="D118">
-        <v>3.333245868529361</v>
+        <v>0.6361447905170053</v>
       </c>
       <c r="E118">
-        <v>1.540927533582061</v>
+        <v>0.4369388247295756</v>
       </c>
       <c r="F118">
-        <v>1.40084549536293</v>
+        <v>1.284176551008938</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.026964763702279</v>
+        <v>0.3986766158907372</v>
       </c>
       <c r="C119">
-        <v>2.279927413023981</v>
+        <v>0.4899701524641976</v>
       </c>
       <c r="D119">
-        <v>3.316784465593586</v>
+        <v>0.6282835612925763</v>
       </c>
       <c r="E119">
-        <v>1.516225486732131</v>
+        <v>0.4317354474756022</v>
       </c>
       <c r="F119">
-        <v>1.395887679512956</v>
+        <v>1.272561880680824</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.016788975328888</v>
+        <v>0.392491622911994</v>
       </c>
       <c r="C120">
-        <v>2.271428087868405</v>
+        <v>0.4799554982269141</v>
       </c>
       <c r="D120">
-        <v>3.300376836486548</v>
+        <v>0.6205037852226387</v>
       </c>
       <c r="E120">
-        <v>1.49172331041623</v>
+        <v>0.4265985001306363</v>
       </c>
       <c r="F120">
-        <v>1.390943696641575</v>
+        <v>1.261036455217234</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.006698596356765</v>
+        <v>0.3863960116558616</v>
       </c>
       <c r="C121">
-        <v>2.262944528402669</v>
+        <v>0.4700869574170392</v>
       </c>
       <c r="D121">
-        <v>3.284023094733167</v>
+        <v>0.612805218930067</v>
       </c>
       <c r="E121">
-        <v>1.467422590232013</v>
+        <v>0.4215273214143775</v>
       </c>
       <c r="F121">
-        <v>1.386013528295858</v>
+        <v>1.24959983940927</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.9966932639201008</v>
+        <v>0.3803886801873277</v>
       </c>
       <c r="C122">
-        <v>2.254477114465496</v>
+        <v>0.4603645471613495</v>
       </c>
       <c r="D122">
-        <v>3.267723344332071</v>
+        <v>0.6051875853325214</v>
       </c>
       <c r="E122">
-        <v>1.443324887196506</v>
+        <v>0.4165212513183234</v>
       </c>
       <c r="F122">
-        <v>1.381097155964806</v>
+        <v>1.238251595946261</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.9867726093579831</v>
+        <v>0.3744685350504153</v>
       </c>
       <c r="C123">
-        <v>2.24602619608536</v>
+        <v>0.4507881978195384</v>
       </c>
       <c r="D123">
-        <v>3.251477676621584</v>
+        <v>0.5976505740222073</v>
       </c>
       <c r="E123">
-        <v>1.419431738276283</v>
+        <v>0.411579631325755</v>
       </c>
       <c r="F123">
-        <v>1.37619456104951</v>
+        <v>1.226991285226393</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.9769362588220358</v>
+        <v>0.3686344910876651</v>
       </c>
       <c r="C124">
-        <v>2.237592110959589</v>
+        <v>0.4413577561926471</v>
       </c>
       <c r="D124">
-        <v>3.235286179181455</v>
+        <v>0.5901938519222991</v>
       </c>
       <c r="E124">
-        <v>1.395744662317574</v>
+        <v>0.4067018040568717</v>
       </c>
       <c r="F124">
-        <v>1.371305724884332</v>
+        <v>1.215818466119336</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.9671838335577151</v>
+        <v>0.3628854716795594</v>
       </c>
       <c r="C125">
-        <v>2.229175180678375</v>
+        <v>0.4320729864355396</v>
       </c>
       <c r="D125">
-        <v>3.21914893233384</v>
+        <v>0.5828170558957009</v>
       </c>
       <c r="E125">
-        <v>1.372265156297184</v>
+        <v>0.4018871142723706</v>
       </c>
       <c r="F125">
-        <v>1.366430628737667</v>
+        <v>1.204732695305806</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.9575149499423603</v>
+        <v>0.357220408804767</v>
       </c>
       <c r="C126">
-        <v>2.22077571518923</v>
+        <v>0.4229335750500059</v>
       </c>
       <c r="D126">
-        <v>3.20306600879933</v>
+        <v>0.5755198021135146</v>
       </c>
       <c r="E126">
-        <v>1.348994670397198</v>
+        <v>0.3971349084278851</v>
       </c>
       <c r="F126">
-        <v>1.361569253829775</v>
+        <v>1.193733528167005</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.9479292184947528</v>
+        <v>0.351638242969514</v>
       </c>
       <c r="C127">
-        <v>2.212394006123131</v>
+        <v>0.413939131525829</v>
       </c>
       <c r="D127">
-        <v>3.187037459973192</v>
+        <v>0.568301684341777</v>
       </c>
       <c r="E127">
-        <v>1.325934654412418</v>
+        <v>0.3924445349729714</v>
       </c>
       <c r="F127">
-        <v>1.356721581282901</v>
+        <v>1.182820518277666</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.9384262457241228</v>
+        <v>0.3461379235136238</v>
       </c>
       <c r="C128">
-        <v>2.204030330489935</v>
+        <v>0.4050891918634116</v>
       </c>
       <c r="D128">
-        <v>3.171063351861596</v>
+        <v>0.5611622741537053</v>
       </c>
       <c r="E128">
-        <v>1.303086530199676</v>
+        <v>0.3878153448540769</v>
       </c>
       <c r="F128">
-        <v>1.351887592160802</v>
+        <v>1.171993217949981</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.9290056344708696</v>
+        <v>0.3407184084112251</v>
       </c>
       <c r="C129">
-        <v>2.195684956424058</v>
+        <v>0.3963832213888115</v>
       </c>
       <c r="D129">
-        <v>3.155143740202553</v>
+        <v>0.5541011279806934</v>
       </c>
       <c r="E129">
-        <v>1.280451686567665</v>
+        <v>0.3832466910524402</v>
       </c>
       <c r="F129">
-        <v>1.347067267461893</v>
+        <v>1.161251178094528</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.9196669831751305</v>
+        <v>0.3353786645218176</v>
       </c>
       <c r="C130">
-        <v>2.187358135293225</v>
+        <v>0.3878206160846521</v>
       </c>
       <c r="D130">
-        <v>3.139278671894783</v>
+        <v>0.5471177809392285</v>
       </c>
       <c r="E130">
-        <v>1.258031462897359</v>
+        <v>0.3787379293864778</v>
       </c>
       <c r="F130">
-        <v>1.3422605881336</v>
+        <v>1.150593948418998</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.9104098846984928</v>
+        <v>0.3301176675728663</v>
       </c>
       <c r="C131">
-        <v>2.179050107386715</v>
+        <v>0.3794007067990371</v>
       </c>
       <c r="D131">
-        <v>3.123468171425571</v>
+        <v>0.5402117551602528</v>
       </c>
       <c r="E131">
-        <v>1.2358272031798</v>
+        <v>0.3742884182758721</v>
       </c>
       <c r="F131">
-        <v>1.337467535036594</v>
+        <v>1.140021077471308</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.9012339286680504</v>
+        <v>0.3249344021208968</v>
       </c>
       <c r="C132">
-        <v>2.170761101846843</v>
+        <v>0.3711227602438054</v>
       </c>
       <c r="D132">
-        <v>3.107712284982792</v>
+        <v>0.5333825577023612</v>
       </c>
       <c r="E132">
-        <v>1.213840212236172</v>
+        <v>0.3698975187875126</v>
       </c>
       <c r="F132">
-        <v>1.332688088973315</v>
+        <v>1.12953211269557</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.8921387018497362</v>
+        <v>0.3198278617963872</v>
       </c>
       <c r="C133">
-        <v>2.16249133719226</v>
+        <v>0.3629859822425699</v>
       </c>
       <c r="D133">
-        <v>3.092011046354677</v>
+        <v>0.5266296799498656</v>
       </c>
       <c r="E133">
-        <v>1.192071746198602</v>
+        <v>0.3655645951917659</v>
       </c>
       <c r="F133">
-        <v>1.327922230681475</v>
+        <v>1.119126600768949</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.8831237870371015</v>
+        <v>0.3147970489774047</v>
       </c>
       <c r="C134">
-        <v>2.154241020887156</v>
+        <v>0.3549895202771222</v>
       </c>
       <c r="D134">
-        <v>3.076364480315681</v>
+        <v>0.5199526039853689</v>
       </c>
       <c r="E134">
-        <v>1.170523034138019</v>
+        <v>0.3612890146118408</v>
       </c>
       <c r="F134">
-        <v>1.32316994083677</v>
+        <v>1.108804087501986</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.8741887624814765</v>
+        <v>0.3098409752887744</v>
       </c>
       <c r="C135">
-        <v>2.146010350791095</v>
+        <v>0.3471324650061418</v>
       </c>
       <c r="D135">
-        <v>3.060772598039213</v>
+        <v>0.5133507977994801</v>
       </c>
       <c r="E135">
-        <v>1.149195280772396</v>
+        <v>0.3570701474258176</v>
       </c>
       <c r="F135">
-        <v>1.318431200048021</v>
+        <v>1.098564117325892</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.8653332035614028</v>
+        <v>0.3049586614595017</v>
       </c>
       <c r="C136">
-        <v>2.137799515592255</v>
+        <v>0.3394138540316909</v>
       </c>
       <c r="D136">
-        <v>3.045235423183541</v>
+        <v>0.5068237206891006</v>
       </c>
       <c r="E136">
-        <v>1.128089650167649</v>
+        <v>0.3529073673896562</v>
       </c>
       <c r="F136">
-        <v>1.313705988861714</v>
+        <v>1.088406234713234</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.8565566831030059</v>
+        <v>0.3001491372716379</v>
       </c>
       <c r="C137">
-        <v>2.129608695364948</v>
+        <v>0.3318326729709014</v>
       </c>
       <c r="D137">
-        <v>3.029752969836491</v>
+        <v>0.5003708224162352</v>
       </c>
       <c r="E137">
-        <v>1.107207255509363</v>
+        <v>0.348800051427433</v>
       </c>
       <c r="F137">
-        <v>1.30899428776047</v>
+        <v>1.07832998338139</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.8478587706083242</v>
+        <v>0.2954114410932031</v>
       </c>
       <c r="C138">
-        <v>2.121438061590356</v>
+        <v>0.3243878585714712</v>
       </c>
       <c r="D138">
-        <v>3.014325245936562</v>
+        <v>0.493991542951129</v>
       </c>
       <c r="E138">
-        <v>1.086549186191173</v>
+        <v>0.3447475801963705</v>
       </c>
       <c r="F138">
-        <v>1.304296077153727</v>
+        <v>1.068334905891831</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.8392390320939169</v>
+        <v>0.2907446212348377</v>
       </c>
       <c r="C139">
-        <v>2.113287776421009</v>
+        <v>0.3170783010376608</v>
       </c>
       <c r="D139">
-        <v>2.99895225386939</v>
+        <v>0.487685316387895</v>
       </c>
       <c r="E139">
-        <v>1.066116486550134</v>
+        <v>0.3407493378228637</v>
       </c>
       <c r="F139">
-        <v>1.299611337402921</v>
+        <v>1.058420544533421</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.8306970310457519</v>
+        <v>0.286147735029123</v>
       </c>
       <c r="C140">
-        <v>2.105157996189093</v>
+        <v>0.3099028455116507</v>
       </c>
       <c r="D140">
-        <v>2.983633997537132</v>
+        <v>0.4814515681207249</v>
       </c>
       <c r="E140">
-        <v>1.045910157355483</v>
+        <v>0.3368047120632804</v>
       </c>
       <c r="F140">
-        <v>1.294940048802846</v>
+        <v>1.048586441475972</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.8222323286682334</v>
+        <v>0.2816198485619504</v>
       </c>
       <c r="C141">
-        <v>2.097048868582341</v>
+        <v>0.3028602956919867</v>
       </c>
       <c r="D141">
-        <v>2.968370475787495</v>
+        <v>0.4752897184502941</v>
       </c>
       <c r="E141">
-        <v>1.025931153848834</v>
+        <v>0.332913094592757</v>
       </c>
       <c r="F141">
-        <v>1.290282191587189</v>
+        <v>1.038832138228812</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.8138444835193991</v>
+        <v>0.2771600368528024</v>
       </c>
       <c r="C142">
-        <v>2.088960533310277</v>
+        <v>0.2959494146967682</v>
       </c>
       <c r="D142">
-        <v>2.953161683938578</v>
+        <v>0.4691991821021216</v>
       </c>
       <c r="E142">
-        <v>1.006180390333209</v>
+        <v>0.3290738807115358</v>
       </c>
       <c r="F142">
-        <v>1.285637745929059</v>
+        <v>1.0291571755019</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.8055330513934625</v>
+        <v>0.2727673849401569</v>
       </c>
       <c r="C143">
-        <v>2.080893124789112</v>
+        <v>0.2891689281752082</v>
       </c>
       <c r="D143">
-        <v>2.938007614458452</v>
+        <v>0.4631793677789135</v>
       </c>
       <c r="E143">
-        <v>0.9866587333743055</v>
+        <v>0.3252864698169215</v>
       </c>
       <c r="F143">
-        <v>1.281006691941527</v>
+        <v>1.019561094336658</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.7972975860049161</v>
+        <v>0.2684409868317478</v>
       </c>
       <c r="C144">
-        <v>2.072846769655808</v>
+        <v>0.282517526392835</v>
       </c>
       <c r="D144">
-        <v>2.922908257896279</v>
+        <v>0.457229681404185</v>
       </c>
       <c r="E144">
-        <v>0.9673669974017861</v>
+        <v>0.3215502652466788</v>
       </c>
       <c r="F144">
-        <v>1.276389009670807</v>
+        <v>1.010043435348393</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.78913763920663</v>
+        <v>0.2641799449419308</v>
       </c>
       <c r="C145">
-        <v>2.064821588244992</v>
+        <v>0.2759938655388948</v>
       </c>
       <c r="D145">
-        <v>2.907863602166841</v>
+        <v>0.4513495237090394</v>
       </c>
       <c r="E145">
-        <v>0.9483059498635295</v>
+        <v>0.3178646742873702</v>
       </c>
       <c r="F145">
-        <v>1.271784679096052</v>
+        <v>1.000603738710104</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.7810527607726295</v>
+        <v>0.2599833714201245</v>
       </c>
       <c r="C146">
-        <v>2.056817695288033</v>
+        <v>0.2695965713494796</v>
       </c>
       <c r="D146">
-        <v>2.892873631503841</v>
+        <v>0.4455382929715986</v>
       </c>
       <c r="E146">
-        <v>0.9294763073135769</v>
+        <v>0.314229108503282</v>
       </c>
       <c r="F146">
-        <v>1.267193680154344</v>
+        <v>0.9912415446855478</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.7730424980380176</v>
+        <v>0.2558503877472639</v>
       </c>
       <c r="C147">
-        <v>2.048835199194423</v>
+        <v>0.2633242395684289</v>
       </c>
       <c r="D147">
-        <v>2.877938328391741</v>
+        <v>0.4397953847419512</v>
       </c>
       <c r="E147">
-        <v>0.9108787321849053</v>
+        <v>0.3106429833871445</v>
       </c>
       <c r="F147">
-        <v>1.262615992715616</v>
+        <v>0.9819563934268706</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.7651063967727826</v>
+        <v>0.251780124447232</v>
       </c>
       <c r="C148">
-        <v>2.040874203044047</v>
+        <v>0.2571754391419443</v>
       </c>
       <c r="D148">
-        <v>2.863057674147725</v>
+        <v>0.4341201914555409</v>
       </c>
       <c r="E148">
-        <v>0.892513827774964</v>
+        <v>0.3071057187897691</v>
       </c>
       <c r="F148">
-        <v>1.25805159659072</v>
+        <v>0.9727478250175178</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.7572440014306894</v>
+        <v>0.2477717205339539</v>
       </c>
       <c r="C149">
-        <v>2.032934804622335</v>
+        <v>0.2511487139991512</v>
       </c>
       <c r="D149">
-        <v>2.848231647815747</v>
+        <v>0.4285121047385711</v>
       </c>
       <c r="E149">
-        <v>0.8743821460466361</v>
+        <v>0.3036167389865413</v>
       </c>
       <c r="F149">
-        <v>1.253500471529557</v>
+        <v>0.9636153795480038</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.7494548547710125</v>
+        <v>0.2438243249334765</v>
       </c>
       <c r="C150">
-        <v>2.025017095566445</v>
+        <v>0.2452425841176483</v>
       </c>
       <c r="D150">
-        <v>2.833460223622009</v>
+        <v>0.4229705138468869</v>
       </c>
       <c r="E150">
-        <v>0.8564841790700034</v>
+        <v>0.3001754726516616</v>
       </c>
       <c r="F150">
-        <v>1.248962597222325</v>
+        <v>0.9545585972405873</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.7417384975741544</v>
+        <v>0.2399370954659353</v>
       </c>
       <c r="C151">
-        <v>2.017121163861558</v>
+        <v>0.2394555492066403</v>
       </c>
       <c r="D151">
-        <v>2.818743375685296</v>
+        <v>0.4174948074535565</v>
       </c>
       <c r="E151">
-        <v>0.8388203583731416</v>
+        <v>0.2967813521241882</v>
       </c>
       <c r="F151">
-        <v>1.24443795330486</v>
+        <v>0.9455770184276616</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.7340944694535939</v>
+        <v>0.2361091989364267</v>
       </c>
       <c r="C152">
-        <v>2.009247092705362</v>
+        <v>0.2337860886426772</v>
       </c>
       <c r="D152">
-        <v>2.804081076964378</v>
+        <v>0.4120843735816304</v>
       </c>
       <c r="E152">
-        <v>0.8213910537564139</v>
+        <v>0.293433814880027</v>
       </c>
       <c r="F152">
-        <v>1.239926519353311</v>
+        <v>0.9366701834792652</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.7265223090987077</v>
+        <v>0.232339810973129</v>
       </c>
       <c r="C153">
-        <v>2.001394961140333</v>
+        <v>0.2282326647966726</v>
       </c>
       <c r="D153">
-        <v>2.789473298165291</v>
+        <v>0.4067385992998223</v>
       </c>
       <c r="E153">
-        <v>0.8041965726462088</v>
+        <v>0.2901323029523304</v>
       </c>
       <c r="F153">
-        <v>1.235428274886222</v>
+        <v>0.927837633144604</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.7190215539038036</v>
+        <v>0.2286281166867531</v>
       </c>
       <c r="C154">
-        <v>1.99356484229574</v>
+        <v>0.222793724431762</v>
       </c>
       <c r="D154">
-        <v>2.7749200056098</v>
+        <v>0.4014568723926477</v>
       </c>
       <c r="E154">
-        <v>0.7872371573084456</v>
+        <v>0.2868762629326587</v>
       </c>
       <c r="F154">
-        <v>1.2309431993674</v>
+        <v>0.9190789084029097</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.7115917397977248</v>
+        <v>0.2249733100947164</v>
       </c>
       <c r="C155">
-        <v>1.985756803848562</v>
+        <v>0.2174676995169093</v>
       </c>
       <c r="D155">
-        <v>2.760421166079252</v>
+        <v>0.3962385802211057</v>
       </c>
       <c r="E155">
-        <v>0.7705129878848777</v>
+        <v>0.2836651445359619</v>
       </c>
       <c r="F155">
-        <v>1.22647127220427</v>
+        <v>0.9103935504299251</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.7042324018834135</v>
+        <v>0.2213745939599802</v>
       </c>
       <c r="C156">
-        <v>1.977970913748822</v>
+        <v>0.2122530109412001</v>
       </c>
       <c r="D156">
-        <v>2.74597674446209</v>
+        <v>0.3910831110198238</v>
       </c>
       <c r="E156">
-        <v>0.7540241732182106</v>
+        <v>0.280498403565959</v>
       </c>
       <c r="F156">
-        <v>1.222012472744891</v>
+        <v>0.9017811007886638</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.6969430746526193</v>
+        <v>0.2178311800762134</v>
       </c>
       <c r="C157">
-        <v>1.970207234948558</v>
+        <v>0.2071480678881828</v>
       </c>
       <c r="D157">
-        <v>2.73158670374128</v>
+        <v>0.3859898538888263</v>
       </c>
       <c r="E157">
-        <v>0.737770753963904</v>
+        <v>0.277375500162694</v>
       </c>
       <c r="F157">
-        <v>1.217566780282973</v>
+        <v>0.893241101500954</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.6897232917079795</v>
+        <v>0.2143422893741315</v>
       </c>
       <c r="C158">
-        <v>1.962465827293563</v>
+        <v>0.2021512712954932</v>
       </c>
       <c r="D158">
-        <v>2.717251004192943</v>
+        <v>0.3809581985008232</v>
       </c>
       <c r="E158">
-        <v>0.7217527025506341</v>
+        <v>0.2742958991031135</v>
       </c>
       <c r="F158">
-        <v>1.213134174056759</v>
+        <v>0.8847730949690553</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.6825725856571262</v>
+        <v>0.2109071516308301</v>
       </c>
       <c r="C159">
-        <v>1.954746740272373</v>
+        <v>0.1972610148044467</v>
       </c>
       <c r="D159">
-        <v>2.702969605587035</v>
+        <v>0.3759875363870556</v>
       </c>
       <c r="E159">
-        <v>0.7059699256201002</v>
+        <v>0.2712590684896204</v>
       </c>
       <c r="F159">
-        <v>1.208714633252367</v>
+        <v>0.8763766239707033</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.675490488611408</v>
+        <v>0.2075250049434591</v>
       </c>
       <c r="C160">
-        <v>1.947050026530646</v>
+        <v>0.1924756853553985</v>
       </c>
       <c r="D160">
-        <v>2.688742465820581</v>
+        <v>0.3710772600878056</v>
       </c>
       <c r="E160">
-        <v>0.6904222498774575</v>
+        <v>0.2682644826030388</v>
       </c>
       <c r="F160">
-        <v>1.204308137000194</v>
+        <v>0.8680512319294919</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.6684765323747257</v>
+        <v>0.2041950967722276</v>
       </c>
       <c r="C161">
-        <v>1.939375735687735</v>
+        <v>0.1877936668457938</v>
       </c>
       <c r="D161">
-        <v>2.674569541251796</v>
+        <v>0.3662267640678306</v>
       </c>
       <c r="E161">
-        <v>0.6751094308671919</v>
+        <v>0.2653116199320819</v>
       </c>
       <c r="F161">
-        <v>1.199914664373902</v>
+        <v>0.859796462785432</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.66153024824579</v>
+        <v>0.2009166832421455</v>
       </c>
       <c r="C162">
-        <v>1.9317239135303</v>
+        <v>0.1832133389820477</v>
       </c>
       <c r="D162">
-        <v>2.660450786545167</v>
+        <v>0.3614354447574535</v>
       </c>
       <c r="E162">
-        <v>0.6600311570643496</v>
+        <v>0.2623999636504984</v>
       </c>
       <c r="F162">
-        <v>1.195534194394704</v>
+        <v>0.851611860992373</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.6546511669039128</v>
+        <v>0.197689029135139</v>
       </c>
       <c r="C163">
-        <v>1.924094602003286</v>
+        <v>0.1787330808297764</v>
       </c>
       <c r="D163">
-        <v>2.646386155215096</v>
+        <v>0.356702700319884</v>
       </c>
       <c r="E163">
-        <v>0.6451870398122628</v>
+        <v>0.259529000902715</v>
       </c>
       <c r="F163">
-        <v>1.191166706030305</v>
+        <v>0.8434969717047073</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.6478388188621463</v>
+        <v>0.1945114075592873</v>
       </c>
       <c r="C164">
-        <v>1.916487834666361</v>
+        <v>0.1743512712794226</v>
       </c>
       <c r="D164">
-        <v>2.632375599327692</v>
+        <v>0.3520279315844859</v>
       </c>
       <c r="E164">
-        <v>0.6305766104795235</v>
+        <v>0.2566982244069528</v>
       </c>
       <c r="F164">
-        <v>1.186812178195273</v>
+        <v>0.8354513407429464</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.6410927346487117</v>
+        <v>0.191383100721803</v>
       </c>
       <c r="C165">
-        <v>1.908903650462824</v>
+        <v>0.1700662894776715</v>
       </c>
       <c r="D165">
-        <v>2.618419069576109</v>
+        <v>0.3474105411381818</v>
       </c>
       <c r="E165">
-        <v>0.6161993259730915</v>
+        <v>0.2539071313220114</v>
       </c>
       <c r="F165">
-        <v>1.182470589751403</v>
+        <v>0.8274745146074275</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.6344124446234336</v>
+        <v>0.1883033992725884</v>
       </c>
       <c r="C166">
-        <v>1.901342082733179</v>
+        <v>0.1658765183179421</v>
       </c>
       <c r="D166">
-        <v>2.60451651489158</v>
+        <v>0.3428499345315982</v>
       </c>
       <c r="E166">
-        <v>0.6020545810551886</v>
+        <v>0.2511552235096081</v>
       </c>
       <c r="F166">
-        <v>1.178141919508097</v>
+        <v>0.819566040524805</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.6277974788438369</v>
+        <v>0.1852716022530334</v>
       </c>
       <c r="C167">
-        <v>1.89380316235267</v>
+        <v>0.1617803428622315</v>
       </c>
       <c r="D167">
-        <v>2.590667883519149</v>
+        <v>0.3383455203181215</v>
       </c>
       <c r="E167">
-        <v>0.5881416768421576</v>
+        <v>0.2484420072558422</v>
       </c>
       <c r="F167">
-        <v>1.173826146224926</v>
+        <v>0.8117254665527855</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.6212473675135244</v>
+        <v>0.1822870171074105</v>
       </c>
       <c r="C168">
-        <v>1.886286915690828</v>
+        <v>0.1577761539083656</v>
       </c>
       <c r="D168">
-        <v>2.576873122291605</v>
+        <v>0.3338967101023769</v>
       </c>
       <c r="E168">
-        <v>0.5744598414996295</v>
+        <v>0.2457669939897504</v>
       </c>
       <c r="F168">
-        <v>1.169523248607546</v>
+        <v>0.8039523415536514</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.6147616411656354</v>
+        <v>0.1793489599366155</v>
       </c>
       <c r="C169">
-        <v>1.878793366974422</v>
+        <v>0.1538623479747913</v>
       </c>
       <c r="D169">
-        <v>2.563132176697047</v>
+        <v>0.3295029161624181</v>
       </c>
       <c r="E169">
-        <v>0.5610082311467876</v>
+        <v>0.2431296997683999</v>
       </c>
       <c r="F169">
-        <v>1.165233205310726</v>
+        <v>0.7962462151702405</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.6083398304626696</v>
+        <v>0.176456755140426</v>
       </c>
       <c r="C170">
-        <v>1.871322539999308</v>
+        <v>0.1500373276263192</v>
       </c>
       <c r="D170">
-        <v>2.549444990438193</v>
+        <v>0.3251635566950469</v>
       </c>
       <c r="E170">
-        <v>0.5477859314706176</v>
+        <v>0.2405296453050932</v>
       </c>
       <c r="F170">
-        <v>1.160955994938757</v>
+        <v>0.7886066380206656</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.601981466067831</v>
+        <v>0.1736097352202051</v>
       </c>
       <c r="C171">
-        <v>1.863874455357024</v>
+        <v>0.1462995046863282</v>
       </c>
       <c r="D171">
-        <v>2.535811506845307</v>
+        <v>0.3208780525970296</v>
       </c>
       <c r="E171">
-        <v>0.5347919368826839</v>
+        <v>0.237966355603054</v>
       </c>
       <c r="F171">
-        <v>1.15669159604552</v>
+        <v>0.7810331616274435</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.5956860790726913</v>
+        <v>0.1708072410893099</v>
       </c>
       <c r="C172">
-        <v>1.856449131519038</v>
+        <v>0.1426472983537736</v>
       </c>
       <c r="D172">
-        <v>2.522231667818445</v>
+        <v>0.3166458280187167</v>
       </c>
       <c r="E172">
-        <v>0.5220251683060525</v>
+        <v>0.2354393610085886</v>
       </c>
       <c r="F172">
-        <v>1.152439987134885</v>
+        <v>0.7735253384192341</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5894532011784313</v>
+        <v>0.1680486219001546</v>
       </c>
       <c r="C173">
-        <v>1.849046583074886</v>
+        <v>0.1390791386949538</v>
       </c>
       <c r="D173">
-        <v>2.508705413947915</v>
+        <v>0.3124663074842448</v>
       </c>
       <c r="E173">
-        <v>0.5094844860606424</v>
+        <v>0.2329481963939193</v>
       </c>
       <c r="F173">
-        <v>1.148201146661312</v>
+        <v>0.7660827218298916</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.5832823644918741</v>
+        <v>0.1653332349157883</v>
       </c>
       <c r="C174">
-        <v>1.841666824692636</v>
+        <v>0.1355934661892513</v>
       </c>
       <c r="D174">
-        <v>2.495232684340807</v>
+        <v>0.3083389230430297</v>
       </c>
       <c r="E174">
-        <v>0.4971686627014771</v>
+        <v>0.230492401234806</v>
       </c>
       <c r="F174">
-        <v>1.143975053029665</v>
+        <v>0.7587048663507379</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5771731014174893</v>
+        <v>0.162660445242169</v>
       </c>
       <c r="C175">
-        <v>1.834309868458005</v>
+        <v>0.1321887319985381</v>
       </c>
       <c r="D175">
-        <v>2.481813417533104</v>
+        <v>0.3042631092170113</v>
       </c>
       <c r="E175">
-        <v>0.4850763924938828</v>
+        <v>0.228071519401293</v>
       </c>
       <c r="F175">
-        <v>1.139761684596062</v>
+        <v>0.7513913275010577</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.5711249450433651</v>
+        <v>0.160029626292064</v>
       </c>
       <c r="C176">
-        <v>1.82697572459299</v>
+        <v>0.1288634008109799</v>
       </c>
       <c r="D176">
-        <v>2.468447550754642</v>
+        <v>0.3002383036714175</v>
       </c>
       <c r="E176">
-        <v>0.4732062988485547</v>
+        <v>0.2256850999277612</v>
       </c>
       <c r="F176">
-        <v>1.135561019668127</v>
+        <v>0.7441416618283232</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.5651374293135057</v>
+        <v>0.1574401593591155</v>
       </c>
       <c r="C177">
-        <v>1.819664401082616</v>
+        <v>0.1256159487882621</v>
       </c>
       <c r="D177">
-        <v>2.455135020060459</v>
+        <v>0.2962639460677672</v>
       </c>
       <c r="E177">
-        <v>0.4615569501138375</v>
+        <v>0.2233326963695626</v>
       </c>
       <c r="F177">
-        <v>1.131373036505369</v>
+        <v>0.7369554270744174</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.559210088838986</v>
+        <v>0.1548914335804222</v>
       </c>
       <c r="C178">
-        <v>1.812375903418292</v>
+        <v>0.1224448668855155</v>
       </c>
       <c r="D178">
-        <v>2.441875760349214</v>
+        <v>0.2923394825402024</v>
       </c>
       <c r="E178">
-        <v>0.4501268182032483</v>
+        <v>0.2210138668164019</v>
       </c>
       <c r="F178">
-        <v>1.127197713319698</v>
+        <v>0.7298321821084235</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.5533424588038628</v>
+        <v>0.152382845814564</v>
       </c>
       <c r="C179">
-        <v>1.80511023688862</v>
+        <v>0.1193486600307947</v>
       </c>
       <c r="D179">
-        <v>2.428669705630796</v>
+        <v>0.2884643622028132</v>
       </c>
       <c r="E179">
-        <v>0.4389143098223159</v>
+        <v>0.2187281738090376</v>
       </c>
       <c r="F179">
-        <v>1.123035028275858</v>
+        <v>0.7227714869108718</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.5475340753117873</v>
+        <v>0.1499138008832952</v>
       </c>
       <c r="C180">
-        <v>1.797867404625717</v>
+        <v>0.116325847371693</v>
       </c>
       <c r="D180">
-        <v>2.415516788807713</v>
+        <v>0.2846380375090383</v>
       </c>
       <c r="E180">
-        <v>0.4279177715280142</v>
+        <v>0.2164751848730199</v>
       </c>
       <c r="F180">
-        <v>1.118884959491247</v>
+        <v>0.7157729027229877</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.5417844755490053</v>
+        <v>0.1474837112572358</v>
       </c>
       <c r="C181">
-        <v>1.790647408267597</v>
+        <v>0.1133749646922985</v>
       </c>
       <c r="D181">
-        <v>2.402416941700001</v>
+        <v>0.2808599644378097</v>
       </c>
       <c r="E181">
-        <v>0.4171354838568576</v>
+        <v>0.2142544720229505</v>
       </c>
       <c r="F181">
-        <v>1.114747485036865</v>
+        <v>0.7088359920196222</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.5360931976111776</v>
+        <v>0.1450919969406421</v>
       </c>
       <c r="C182">
-        <v>1.783450246468606</v>
+        <v>0.11049456231786</v>
       </c>
       <c r="D182">
-        <v>2.389370095102178</v>
+        <v>0.2771296040297103</v>
       </c>
       <c r="E182">
-        <v>0.4065656462902335</v>
+        <v>0.2120656117471194</v>
       </c>
       <c r="F182">
-        <v>1.110622582937528</v>
+        <v>0.7019603185094335</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.5304597804108929</v>
+        <v>0.1427380855398207</v>
       </c>
       <c r="C183">
-        <v>1.77627591741464</v>
+        <v>0.1076832081748886</v>
       </c>
       <c r="D183">
-        <v>2.376376178882099</v>
+        <v>0.273446420986738</v>
       </c>
       <c r="E183">
-        <v>0.3962063964886559</v>
+        <v>0.2099081850193882</v>
       </c>
       <c r="F183">
-        <v>1.106510231172257</v>
+        <v>0.6951454471680761</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.5248837639998603</v>
+        <v>0.1404214122445046</v>
       </c>
       <c r="C184">
-        <v>1.769124418281383</v>
+        <v>0.1049394866970255</v>
       </c>
       <c r="D184">
-        <v>2.363435121901434</v>
+        <v>0.2698098837286952</v>
       </c>
       <c r="E184">
-        <v>0.3860558299407262</v>
+        <v>0.2077817775916102</v>
       </c>
       <c r="F184">
-        <v>1.102410407675509</v>
+        <v>0.6883909443385652</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.5193646897268221</v>
+        <v>0.1381414196590349</v>
       </c>
       <c r="C185">
-        <v>1.761995744540948</v>
+        <v>0.1022619990652925</v>
       </c>
       <c r="D185">
-        <v>2.350546851956202</v>
+        <v>0.2662194649021128</v>
       </c>
       <c r="E185">
-        <v>0.3761119587695371</v>
+        <v>0.2056859796708252</v>
       </c>
       <c r="F185">
-        <v>1.098323090336435</v>
+        <v>0.6816963776875343</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.5139021000688964</v>
+        <v>0.1358975576233939</v>
       </c>
       <c r="C186">
-        <v>1.754889890221359</v>
+        <v>0.09964936517429963</v>
       </c>
       <c r="D186">
-        <v>2.337711295906566</v>
+        <v>0.2626746416247231</v>
       </c>
       <c r="E186">
-        <v>0.3663727388070826</v>
+        <v>0.2036203858517401</v>
       </c>
       <c r="F186">
-        <v>1.094248256998932</v>
+        <v>0.6750613161160512</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.5084955385369671</v>
+        <v>0.1336892834253019</v>
       </c>
       <c r="C187">
-        <v>1.747806846454552</v>
+        <v>0.09710022160175255</v>
       </c>
       <c r="D187">
-        <v>2.324928379735236</v>
+        <v>0.2591748951393146</v>
       </c>
       <c r="E187">
-        <v>0.3568360725727976</v>
+        <v>0.2015845951929201</v>
       </c>
       <c r="F187">
-        <v>1.0901858854631</v>
+        <v>0.6684853300922323</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.5031445499824675</v>
+        <v>0.1315160615591677</v>
       </c>
       <c r="C188">
-        <v>1.740746605217229</v>
+        <v>0.09461322433820814</v>
       </c>
       <c r="D188">
-        <v>2.312198028463526</v>
+        <v>0.255719710172413</v>
       </c>
       <c r="E188">
-        <v>0.3474998200677472</v>
+        <v>0.199578211373955</v>
       </c>
       <c r="F188">
-        <v>1.086135953485228</v>
+        <v>0.6619679914641009</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.4978486807530623</v>
+        <v>0.1293773636735441</v>
       </c>
       <c r="C189">
-        <v>1.733709156505652</v>
+        <v>0.09218704751954337</v>
       </c>
       <c r="D189">
-        <v>2.299520166047856</v>
+        <v>0.2523085762786887</v>
       </c>
       <c r="E189">
-        <v>0.33836176886078</v>
+        <v>0.1976008424606562</v>
       </c>
       <c r="F189">
-        <v>1.082098438778187</v>
+        <v>0.6555088735438631</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.4926074785213383</v>
+        <v>0.1272726684449225</v>
       </c>
       <c r="C190">
-        <v>1.726694489146127</v>
+        <v>0.0898203836624631</v>
       </c>
       <c r="D190">
-        <v>2.286894715605806</v>
+        <v>0.2489409873784803</v>
       </c>
       <c r="E190">
-        <v>0.3294196609268004</v>
+        <v>0.1956521008007275</v>
       </c>
       <c r="F190">
-        <v>1.078073319013368</v>
+        <v>0.6491075511385354</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.4874204921916863</v>
+        <v>0.1252014616799996</v>
       </c>
       <c r="C191">
-        <v>1.719702590339748</v>
+        <v>0.08751194518053028</v>
       </c>
       <c r="D191">
-        <v>2.27432159938846</v>
+        <v>0.2456164416324154</v>
       </c>
       <c r="E191">
-        <v>0.3206712003292219</v>
+        <v>0.1937316031580016</v>
       </c>
       <c r="F191">
-        <v>1.074060571817917</v>
+        <v>0.6427636001326774</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.4822872721909314</v>
+        <v>0.1231632361196248</v>
       </c>
       <c r="C192">
-        <v>1.712733446005621</v>
+        <v>0.08526046253609496</v>
       </c>
       <c r="D192">
-        <v>2.261800738723158</v>
+        <v>0.2423344405013141</v>
       </c>
       <c r="E192">
-        <v>0.3121140417850758</v>
+        <v>0.1918389707682112</v>
       </c>
       <c r="F192">
-        <v>1.07006017477705</v>
+        <v>0.6364765984021435</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.4772073706212099</v>
+        <v>0.1211574913714275</v>
       </c>
       <c r="C193">
-        <v>1.705787041676284</v>
+        <v>0.08306468651904375</v>
       </c>
       <c r="D193">
-        <v>2.249332053922042</v>
+        <v>0.2390944908562683</v>
       </c>
       <c r="E193">
-        <v>0.303745789825109</v>
+        <v>0.1899738291636103</v>
       </c>
       <c r="F193">
-        <v>1.066072105434386</v>
+        <v>0.6302461253034376</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.4721803410873082</v>
+        <v>0.1191837338548922</v>
       </c>
       <c r="C194">
-        <v>1.698863361512441</v>
+        <v>0.08092338697544897</v>
       </c>
       <c r="D194">
-        <v>2.236915464514449</v>
+        <v>0.2358961035843853</v>
       </c>
       <c r="E194">
-        <v>0.295564010918371</v>
+        <v>0.1881358080430385</v>
       </c>
       <c r="F194">
-        <v>1.062096341292156</v>
+        <v>0.6240717617403657</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.4672057386083022</v>
+        <v>0.1172414767889092</v>
       </c>
       <c r="C195">
-        <v>1.69196238866553</v>
+        <v>0.07883535299320202</v>
       </c>
       <c r="D195">
-        <v>2.224550889152911</v>
+        <v>0.2327387938498338</v>
       </c>
       <c r="E195">
-        <v>0.2875662474453394</v>
+        <v>0.1863245414553357</v>
       </c>
       <c r="F195">
-        <v>1.058132859811719</v>
+        <v>0.6179530902340904</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.462283119888766</v>
+        <v>0.1153302400644108</v>
       </c>
       <c r="C196">
-        <v>1.685084104665304</v>
+        <v>0.0767993940053706</v>
       </c>
       <c r="D196">
-        <v>2.212238245611479</v>
+        <v>0.2296220804737319</v>
       </c>
       <c r="E196">
-        <v>0.2797499903473339</v>
+        <v>0.1845396677648722</v>
       </c>
       <c r="F196">
-        <v>1.05418163841509</v>
+        <v>0.611889694419714</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.4574120434670708</v>
+        <v>0.1134495501547826</v>
       </c>
       <c r="C197">
-        <v>1.678228490709779</v>
+        <v>0.07481433819185603</v>
       </c>
       <c r="D197">
-        <v>2.199977450728435</v>
+        <v>0.2265454874337916</v>
       </c>
       <c r="E197">
-        <v>0.2721127023822473</v>
+        <v>0.1827808295303184</v>
       </c>
       <c r="F197">
-        <v>1.050242654482341</v>
+        <v>0.6058811598655942</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.4525920695453519</v>
+        <v>0.1115989401058038</v>
       </c>
       <c r="C198">
-        <v>1.671395526955873</v>
+        <v>0.07287903425606775</v>
       </c>
       <c r="D198">
-        <v>2.187768420567938</v>
+        <v>0.223508542779911</v>
       </c>
       <c r="E198">
-        <v>0.2646518191391724</v>
+        <v>0.1810476733672583</v>
       </c>
       <c r="F198">
-        <v>1.04631588535448</v>
+        <v>0.5999270740386887</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4478227599055614</v>
+        <v>0.1097779494453924</v>
       </c>
       <c r="C199">
-        <v>1.664585192610992</v>
+        <v>0.0709923502620543</v>
       </c>
       <c r="D199">
-        <v>2.175611070331777</v>
+        <v>0.220510778792515</v>
       </c>
       <c r="E199">
-        <v>0.2573647528571799</v>
+        <v>0.1793398501508802</v>
       </c>
       <c r="F199">
-        <v>1.042401308333168</v>
+        <v>0.5940270259171476</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.4431036781610441</v>
+        <v>0.10798612410479</v>
       </c>
       <c r="C200">
-        <v>1.657797465881659</v>
+        <v>0.0691531737425255</v>
       </c>
       <c r="D200">
-        <v>2.163505314383937</v>
+        <v>0.2175517317661793</v>
       </c>
       <c r="E200">
-        <v>0.2502488839372997</v>
+        <v>0.1776570149105932</v>
       </c>
       <c r="F200">
-        <v>1.038498900681115</v>
+        <v>0.5881806061868868</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.4384343898996454</v>
+        <v>0.1062230163350557</v>
       </c>
       <c r="C201">
-        <v>1.651032323712465</v>
+        <v>0.06736041244632972</v>
       </c>
       <c r="D201">
-        <v>2.15145106621385</v>
+        <v>0.2146309427901684</v>
       </c>
       <c r="E201">
-        <v>0.2433015734029549</v>
+        <v>0.1759988267610793</v>
       </c>
       <c r="F201">
-        <v>1.034608639622798</v>
+        <v>0.5823874069438637</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.4338144625176111</v>
+        <v>0.1044881846793814</v>
       </c>
       <c r="C202">
-        <v>1.644289742868009</v>
+        <v>0.06561299299740683</v>
       </c>
       <c r="D202">
-        <v>2.139448238543825</v>
+        <v>0.2117479571245268</v>
       </c>
       <c r="E202">
-        <v>0.2365201670242574</v>
+        <v>0.1743649487674454</v>
       </c>
       <c r="F202">
-        <v>1.030730502344908</v>
+        <v>0.5766470218972383</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.4292434651382013</v>
+        <v>0.1027811938742037</v>
       </c>
       <c r="C203">
-        <v>1.637569699072037</v>
+        <v>0.06390986220971094</v>
       </c>
       <c r="D203">
-        <v>2.127496743266845</v>
+        <v>0.2089023242059724</v>
       </c>
       <c r="E203">
-        <v>0.2299019917731288</v>
+        <v>0.1727550481403647</v>
       </c>
       <c r="F203">
-        <v>1.026864465995576</v>
+        <v>0.570959047020535</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.4247209688459107</v>
+        <v>0.1011016147885742</v>
       </c>
       <c r="C204">
-        <v>1.630872167285977</v>
+        <v>0.06224998538667281</v>
       </c>
       <c r="D204">
-        <v>2.115596491467637</v>
+        <v>0.2060935976720049</v>
       </c>
       <c r="E204">
-        <v>0.2234443606200722</v>
+        <v>0.1711687960894609</v>
       </c>
       <c r="F204">
-        <v>1.023010507685994</v>
+        <v>0.5653230798081669</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.4202465468249579</v>
+        <v>0.09944902435592452</v>
       </c>
       <c r="C205">
-        <v>1.624197121316582</v>
+        <v>0.06063234714875163</v>
       </c>
       <c r="D205">
-        <v>2.103747393390692</v>
+        <v>0.2033213357315486</v>
       </c>
       <c r="E205">
-        <v>0.2171445762459501</v>
+        <v>0.1696058677932079</v>
       </c>
       <c r="F205">
-        <v>1.019168604490456</v>
+        <v>0.5597387195365969</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.4158197741958812</v>
+        <v>0.0978230055007894</v>
       </c>
       <c r="C206">
-        <v>1.61754453438881</v>
+        <v>0.05905595289521834</v>
       </c>
       <c r="D206">
-        <v>2.09194935853993</v>
+        <v>0.2005851007981576</v>
       </c>
       <c r="E206">
-        <v>0.2109999332406269</v>
+        <v>0.1680659422695636</v>
       </c>
       <c r="F206">
-        <v>1.015338733446754</v>
+        <v>0.5542055671616194</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.4114402279359661</v>
+        <v>0.09622314707337409</v>
       </c>
       <c r="C207">
-        <v>1.61091437925868</v>
+        <v>0.05751982724952464</v>
       </c>
       <c r="D207">
-        <v>2.08020229561831</v>
+        <v>0.1978844593678987</v>
       </c>
       <c r="E207">
-        <v>0.2050077205520095</v>
+        <v>0.1665487025538999</v>
       </c>
       <c r="F207">
-        <v>1.01152087155714</v>
+        <v>0.5487232251191233</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.4071074870979919</v>
+        <v>0.09464904381376872</v>
       </c>
       <c r="C208">
-        <v>1.604306627848445</v>
+        <v>0.05602301223011515</v>
       </c>
       <c r="D208">
-        <v>2.068506112543781</v>
+        <v>0.1952189822463183</v>
       </c>
       <c r="E208">
-        <v>0.1991652243290823</v>
+        <v>0.1650538355328133</v>
       </c>
       <c r="F208">
-        <v>1.007714995787948</v>
+        <v>0.5432912982218903</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.4028211329446067</v>
+        <v>0.09310029623678313</v>
       </c>
       <c r="C209">
-        <v>1.597721251405154</v>
+        <v>0.05456456467167426</v>
       </c>
       <c r="D209">
-        <v>2.05686071642702</v>
+        <v>0.1925882446485391</v>
       </c>
       <c r="E209">
-        <v>0.1934697256907336</v>
+        <v>0.1635810319362514</v>
       </c>
       <c r="F209">
-        <v>1.003921083069892</v>
+        <v>0.5379093928942859</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.3985807487865783</v>
+        <v>0.09157651055886336</v>
       </c>
       <c r="C210">
-        <v>1.591158219930511</v>
+        <v>0.05314356885634194</v>
       </c>
       <c r="D210">
-        <v>2.045266013660127</v>
+        <v>0.1899918259760175</v>
       </c>
       <c r="E210">
-        <v>0.1879185074618034</v>
+        <v>0.1621299862225033</v>
       </c>
       <c r="F210">
-        <v>1.000139110299078</v>
+        <v>0.5325771174118418</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.3943859199056257</v>
+        <v>0.09007729865684562</v>
       </c>
       <c r="C211">
-        <v>1.584617503506839</v>
+        <v>0.05175912530943145</v>
       </c>
       <c r="D211">
-        <v>2.033721909860018</v>
+        <v>0.1874293095927324</v>
       </c>
       <c r="E211">
-        <v>0.182508862592647</v>
+        <v>0.1607003967219551</v>
       </c>
       <c r="F211">
-        <v>0.9963690543371749</v>
+        <v>0.5272940818996674</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.3902362337580796</v>
+        <v>0.08860227798838247</v>
       </c>
       <c r="C212">
-        <v>1.578099071338785</v>
+        <v>0.05041035310622427</v>
       </c>
       <c r="D212">
-        <v>2.02222830988201</v>
+        <v>0.1849002832651106</v>
       </c>
       <c r="E212">
-        <v>0.1772380892479962</v>
+        <v>0.1592919654796687</v>
       </c>
       <c r="F212">
-        <v>0.9926108920118204</v>
+        <v>0.5220598979880222</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3861312801049205</v>
+        <v>0.08715107152514909</v>
       </c>
       <c r="C213">
-        <v>1.571602892030277</v>
+        <v>0.04909637450085545</v>
       </c>
       <c r="D213">
-        <v>2.010785117813851</v>
+        <v>0.1824043389816589</v>
       </c>
       <c r="E213">
-        <v>0.1721034958837585</v>
+        <v>0.1579043982496553</v>
       </c>
       <c r="F213">
-        <v>0.9888646001179311</v>
+        <v>0.516874179690461</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.3820706508521344</v>
+        <v>0.08572330793044679</v>
       </c>
       <c r="C214">
-        <v>1.565128933455017</v>
+        <v>0.04781635091240539</v>
       </c>
       <c r="D214">
-        <v>1.999392237032839</v>
+        <v>0.1799410728790052</v>
       </c>
       <c r="E214">
-        <v>0.1671024039685778</v>
+        <v>0.1565374044062574</v>
       </c>
       <c r="F214">
-        <v>0.9851301554162357</v>
+        <v>0.5117365427399858</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.3780539399766872</v>
+        <v>0.08431862092762682</v>
       </c>
       <c r="C215">
-        <v>1.558677162771287</v>
+        <v>0.04656945531755412</v>
       </c>
       <c r="D215">
-        <v>1.988049570170055</v>
+        <v>0.177510084955573</v>
       </c>
       <c r="E215">
-        <v>0.1622321275080721</v>
+        <v>0.1551906970345177</v>
       </c>
       <c r="F215">
-        <v>0.9814075346348903</v>
+        <v>0.5066466047868072</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.3740807437148722</v>
+        <v>0.08293664967158558</v>
       </c>
       <c r="C216">
-        <v>1.552247546899889</v>
+        <v>0.0453548794174272</v>
       </c>
       <c r="D216">
-        <v>1.976757019120618</v>
+        <v>0.1751109796548674</v>
       </c>
       <c r="E216">
-        <v>0.1574900154195076</v>
+        <v>0.1538639928068338</v>
       </c>
       <c r="F216">
-        <v>0.9776967144697806</v>
+        <v>0.5016039854145085</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.370150660687411</v>
+        <v>0.08157703856268878</v>
       </c>
       <c r="C217">
-        <v>1.545840052083786</v>
+        <v>0.04417182301136221</v>
       </c>
       <c r="D217">
-        <v>1.965514485048715</v>
+        <v>0.1727433654451947</v>
       </c>
       <c r="E217">
-        <v>0.1528734284248914</v>
+        <v>0.1525570119669115</v>
       </c>
       <c r="F217">
-        <v>0.973997671584844</v>
+        <v>0.4966083057258088</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.3662632917430941</v>
+        <v>0.0802394371781377</v>
       </c>
       <c r="C218">
-        <v>1.539454644042555</v>
+        <v>0.04301950887120444</v>
       </c>
       <c r="D218">
-        <v>1.954321868415968</v>
+        <v>0.170406854848241</v>
       </c>
       <c r="E218">
-        <v>0.1483797411943981</v>
+        <v>0.151269478265688</v>
       </c>
       <c r="F218">
-        <v>0.9703103826125773</v>
+        <v>0.4916591892031054</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.3624182398880565</v>
+        <v>0.07892350035585102</v>
       </c>
       <c r="C219">
-        <v>1.533091287737632</v>
+        <v>0.04189717830737537</v>
       </c>
       <c r="D219">
-        <v>1.943179068967094</v>
+        <v>0.1681010641136413</v>
       </c>
       <c r="E219">
-        <v>0.1440063468924695</v>
+        <v>0.1500011190040299</v>
       </c>
       <c r="F219">
-        <v>0.966634824155129</v>
+        <v>0.4867562612201893</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.3586151104589718</v>
+        <v>0.07762888818374639</v>
       </c>
       <c r="C220">
-        <v>1.526749947827393</v>
+        <v>0.04080408317811905</v>
       </c>
       <c r="D220">
-        <v>1.932085985730722</v>
+        <v>0.1658256140145888</v>
       </c>
       <c r="E220">
-        <v>0.1397506649903563</v>
+        <v>0.1487516649413694</v>
       </c>
       <c r="F220">
-        <v>0.962970972782823</v>
+        <v>0.4818991490721535</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.354853511242797</v>
+        <v>0.07635526528827022</v>
       </c>
       <c r="C221">
-        <v>1.520430588496845</v>
+        <v>0.03973949662739755</v>
       </c>
       <c r="D221">
-        <v>1.921042517034919</v>
+        <v>0.1635801292080504</v>
       </c>
       <c r="E221">
-        <v>0.1356101361897827</v>
+        <v>0.1475208502678383</v>
       </c>
       <c r="F221">
-        <v>0.9593188050361525</v>
+        <v>0.4770874820357484</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3511330523245209</v>
+        <v>0.07510230141482545</v>
       </c>
       <c r="C222">
-        <v>1.514133173418805</v>
+        <v>0.03870270703360571</v>
       </c>
       <c r="D222">
-        <v>1.910048560528692</v>
+        <v>0.1613642383831348</v>
       </c>
       <c r="E222">
-        <v>0.1315822225659024</v>
+        <v>0.146308412551715</v>
       </c>
       <c r="F222">
-        <v>0.9556782974257559</v>
+        <v>0.4723208910717206</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3474533460195344</v>
+        <v>0.07386967116775638</v>
       </c>
       <c r="C223">
-        <v>1.507857665772745</v>
+        <v>0.0376930157077464</v>
       </c>
       <c r="D223">
-        <v>1.899104013168452</v>
+        <v>0.1591775742476418</v>
       </c>
       <c r="E223">
-        <v>0.1276644170896691</v>
+        <v>0.1451140927761715</v>
       </c>
       <c r="F223">
-        <v>0.9520494264328293</v>
+        <v>0.4675990092844208</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3438140070323165</v>
+        <v>0.07265705394351488</v>
       </c>
       <c r="C224">
-        <v>1.501604028075078</v>
+        <v>0.03670974376818906</v>
       </c>
       <c r="D224">
-        <v>1.888208771230648</v>
+        <v>0.1570197731743626</v>
       </c>
       <c r="E224">
-        <v>0.1238542399281207</v>
+        <v>0.143937635247076</v>
       </c>
       <c r="F224">
-        <v>0.94843216850977</v>
+        <v>0.4629214719358062</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3402146525707007</v>
+        <v>0.07146413429377729</v>
       </c>
       <c r="C225">
-        <v>1.495372222703202</v>
+        <v>0.03575222640587804</v>
       </c>
       <c r="D225">
-        <v>1.87736273031818</v>
+        <v>0.154890475035604</v>
       </c>
       <c r="E225">
-        <v>0.1201492338034554</v>
+        <v>0.1427787875755826</v>
       </c>
       <c r="F225">
-        <v>0.9448265000805819</v>
+        <v>0.4582879161856206</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.336654902198007</v>
+        <v>0.07029060116501334</v>
       </c>
       <c r="C226">
-        <v>1.489162211500758</v>
+        <v>0.03481981075631774</v>
       </c>
       <c r="D226">
-        <v>1.866565785334082</v>
+        <v>0.1527893246788653</v>
       </c>
       <c r="E226">
-        <v>0.1165469758462977</v>
+        <v>0.1416373006448599</v>
       </c>
       <c r="F226">
-        <v>0.9412323975405252</v>
+        <v>0.4536979812111643</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.3331343776456401</v>
+        <v>0.06913614796108083</v>
       </c>
       <c r="C227">
-        <v>1.482973955902456</v>
+        <v>0.03391186423978919</v>
       </c>
       <c r="D227">
-        <v>1.855817830514878</v>
+        <v>0.1507159704281391</v>
       </c>
       <c r="E227">
-        <v>0.1130450767815925</v>
+        <v>0.1405129285623611</v>
       </c>
       <c r="F227">
-        <v>0.9376498372573513</v>
+        <v>0.4491513080340907</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3296527031433556</v>
+        <v>0.06800047277699388</v>
       </c>
       <c r="C228">
-        <v>1.47680741681527</v>
+        <v>0.03302776603581799</v>
       </c>
       <c r="D228">
-        <v>1.845118759488218</v>
+        <v>0.1486700645080706</v>
       </c>
       <c r="E228">
-        <v>0.1096411751990609</v>
+        <v>0.1394054286154368</v>
       </c>
       <c r="F228">
-        <v>0.9340787955714681</v>
+        <v>0.4446475396122044</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3262095055737888</v>
+        <v>0.06688327819904598</v>
       </c>
       <c r="C229">
-        <v>1.470662554755489</v>
+        <v>0.03216690726814793</v>
       </c>
       <c r="D229">
-        <v>1.834468465207445</v>
+        <v>0.1466512630276622</v>
       </c>
       <c r="E229">
-        <v>0.1063329360453096</v>
+        <v>0.1383145613129061</v>
       </c>
       <c r="F229">
-        <v>0.9305192487963555</v>
+        <v>0.4401863212559264</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.3228044141855402</v>
+        <v>0.06578427125482435</v>
       </c>
       <c r="C230">
-        <v>1.464539329990622</v>
+        <v>0.03132869874463887</v>
       </c>
       <c r="D230">
-        <v>1.823866839981551</v>
+        <v>0.1446592250637469</v>
       </c>
       <c r="E230">
-        <v>0.1031180691797743</v>
+        <v>0.1372400902790001</v>
       </c>
       <c r="F230">
-        <v>0.9269711732192453</v>
+        <v>0.4357673001637401</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.319437060718248</v>
+        <v>0.06470316407078285</v>
       </c>
       <c r="C231">
-        <v>1.4584377023527</v>
+        <v>0.03051256081389509</v>
       </c>
       <c r="D231">
-        <v>1.813313775481433</v>
+        <v>0.1426936136311091</v>
       </c>
       <c r="E231">
-        <v>0.09999431618164055</v>
+        <v>0.1361817822414109</v>
       </c>
       <c r="F231">
-        <v>0.9234345451011439</v>
+        <v>0.4313901255780384</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3161070794222859</v>
+        <v>0.06363967212436324</v>
       </c>
       <c r="C232">
-        <v>1.452357631317037</v>
+        <v>0.02971792710533078</v>
       </c>
       <c r="D232">
-        <v>1.802809162703307</v>
+        <v>0.1407540964827982</v>
       </c>
       <c r="E232">
-        <v>0.09695944042809458</v>
+        <v>0.1351394069979007</v>
       </c>
       <c r="F232">
-        <v>0.9199093406772453</v>
+        <v>0.4270544487102753</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3128141062924276</v>
+        <v>0.06259351551927783</v>
       </c>
       <c r="C233">
-        <v>1.446299075789734</v>
+        <v>0.02894424889329653</v>
       </c>
       <c r="D233">
-        <v>1.792352891999403</v>
+        <v>0.1388403445905359</v>
       </c>
       <c r="E233">
-        <v>0.09401125494988305</v>
+        <v>0.1341127373624283</v>
       </c>
       <c r="F233">
-        <v>0.9163955361575991</v>
+        <v>0.422759922570158</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3095577801640305</v>
+        <v>0.06156441856343384</v>
       </c>
       <c r="C234">
-        <v>1.44026199457545</v>
+        <v>0.02819098532163147</v>
       </c>
       <c r="D234">
-        <v>1.781944853177832</v>
+        <v>0.136952032644347</v>
       </c>
       <c r="E234">
-        <v>0.09114760513890025</v>
+        <v>0.1331015491293179</v>
       </c>
       <c r="F234">
-        <v>0.9128931077274252</v>
+        <v>0.4185062026350188</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3063377429712952</v>
+        <v>0.06055210970711427</v>
       </c>
       <c r="C235">
-        <v>1.434246346075659</v>
+        <v>0.02745761067018614</v>
       </c>
       <c r="D235">
-        <v>1.771584935392044</v>
+        <v>0.1350888390304365</v>
       </c>
       <c r="E235">
-        <v>0.08836636808437628</v>
+        <v>0.132105621116479</v>
       </c>
       <c r="F235">
-        <v>0.9094020315475315</v>
+        <v>0.414292946274197</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3031536388292675</v>
+        <v>0.05955632167810568</v>
       </c>
       <c r="C236">
-        <v>1.428252088360502</v>
+        <v>0.02674361424339224</v>
       </c>
       <c r="D236">
-        <v>1.761273027184267</v>
+        <v>0.1332504448458033</v>
       </c>
       <c r="E236">
-        <v>0.08566545751219008</v>
+        <v>0.1311247350511481</v>
       </c>
       <c r="F236">
-        <v>0.9059222837549732</v>
+        <v>0.410119812919543</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3000051144063757</v>
+        <v>0.05857679146604244</v>
       </c>
       <c r="C237">
-        <v>1.422279179139253</v>
+        <v>0.02604849169323378</v>
       </c>
       <c r="D237">
-        <v>1.751009016491476</v>
+        <v>0.131436535606897</v>
       </c>
       <c r="E237">
-        <v>0.08304282908503864</v>
+        <v>0.1301586755608973</v>
       </c>
       <c r="F237">
-        <v>0.9024538404629562</v>
+        <v>0.4059864640583604</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.2968918189411114</v>
+        <v>0.05761325949406833</v>
       </c>
       <c r="C238">
-        <v>1.416327575722768</v>
+        <v>0.02537175593190399</v>
       </c>
       <c r="D238">
-        <v>1.740792790628671</v>
+        <v>0.1296468005586046</v>
       </c>
       <c r="E238">
-        <v>0.08049647319660802</v>
+        <v>0.1292072301400533</v>
       </c>
       <c r="F238">
-        <v>0.8989966777616017</v>
+        <v>0.4018925628786502</v>
       </c>
     </row>
   </sheetData>
